--- a/data/result/QA_subtitle.xlsx
+++ b/data/result/QA_subtitle.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="简单的问句探测方法" sheetId="1" r:id="rId1"/>
     <sheet name="基于SVM的方法" sheetId="2" r:id="rId2"/>
-    <sheet name="基于问句－答句模式的简单匹配(pos)" sheetId="3" r:id="rId3"/>
+    <sheet name="基于SVM的方法（修正）" sheetId="4" r:id="rId3"/>
+    <sheet name="基于问句－答句模式的简单匹配(pos)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,8 +29,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>yezhejack</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>yezhejack:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
   <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,12 +184,171 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PrefixSpan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefixSpan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefixSpan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefixSpan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动结果＋手工筛选1</t>
+    <rPh sb="0" eb="1">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou gong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shai xuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动结果＋手工筛选1</t>
+    <rPh sb="0" eb="1">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minlen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动结果</t>
+    <rPh sb="0" eb="1">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefixSpan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动结果保留150个词</t>
+    <rPh sb="0" eb="1">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao liu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动结果保留200个词</t>
+    <rPh sb="0" eb="1">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao liu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefixSpan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +388,27 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,7 +474,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,13 +497,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -327,26 +584,29 @@
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+  <dxfs count="41">
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -369,7 +629,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -417,6 +681,82 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="黑体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -428,45 +768,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:D30"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="minsup" dataDxfId="19"/>
-    <tableColumn id="2" name="minlen" dataDxfId="18"/>
-    <tableColumn id="3" name="P" dataDxfId="17"/>
-    <tableColumn id="4" name="R" dataDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F30" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:F30"/>
+  <sortState ref="A2:F30">
+    <sortCondition descending="1" ref="F1:F30"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="minsup" dataDxfId="38"/>
+    <tableColumn id="2" name="minlen" dataDxfId="37"/>
+    <tableColumn id="3" name="P" dataDxfId="36"/>
+    <tableColumn id="4" name="R" dataDxfId="35"/>
+    <tableColumn id="5" name="F" dataDxfId="2">
+      <calculatedColumnFormula>(C2*D2*2)/(C2+D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="E" dataDxfId="0">
+      <calculatedColumnFormula>C2*D2*1.3/(0.3*C2+D2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:H6"/>
-  <tableColumns count="8">
-    <tableColumn id="2" name="pattern_mine" dataDxfId="13"/>
-    <tableColumn id="3" name="minsup" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:L21" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:L21"/>
+  <sortState ref="A2:L19">
+    <sortCondition descending="1" ref="L1:L19"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="2" name="pattern_mine" dataDxfId="32"/>
+    <tableColumn id="3" name="minsup" dataDxfId="31"/>
+    <tableColumn id="11" name="minlen" dataDxfId="30"/>
+    <tableColumn id="4" name="precision" dataDxfId="29"/>
+    <tableColumn id="5" name="recall" dataDxfId="28"/>
+    <tableColumn id="10" name="F" dataDxfId="4">
+      <calculatedColumnFormula>D2*E2*2/(D2+E2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="E" dataDxfId="1">
+      <calculatedColumnFormula>D2*E2*1.3/(0.3*D2+E2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="t" dataDxfId="27"/>
+    <tableColumn id="7" name="s" dataDxfId="26"/>
+    <tableColumn id="8" name="c" dataDxfId="25"/>
+    <tableColumn id="9" name="g" dataDxfId="24"/>
+    <tableColumn id="1" name="keywords" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_5" displayName="表3_5" ref="A1:J18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:J18"/>
+  <tableColumns count="10">
+    <tableColumn id="2" name="pattern_mine" dataDxfId="14"/>
+    <tableColumn id="3" name="minsup" dataDxfId="13"/>
+    <tableColumn id="11" name="minlen" dataDxfId="12"/>
     <tableColumn id="4" name="precision" dataDxfId="11"/>
     <tableColumn id="5" name="recall" dataDxfId="10"/>
     <tableColumn id="6" name="t" dataDxfId="9"/>
     <tableColumn id="7" name="s" dataDxfId="8"/>
     <tableColumn id="8" name="c" dataDxfId="7"/>
     <tableColumn id="9" name="g" dataDxfId="6"/>
+    <tableColumn id="1" name="keywords" dataDxfId="5"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D12"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="minsup" dataDxfId="3"/>
-    <tableColumn id="2" name="minlen" dataDxfId="2"/>
-    <tableColumn id="3" name="P" dataDxfId="1"/>
-    <tableColumn id="4" name="R" dataDxfId="0"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:E12"/>
+  <sortState ref="A2:E12">
+    <sortCondition descending="1" ref="E1:E12"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="minsup" dataDxfId="20"/>
+    <tableColumn id="2" name="minlen" dataDxfId="19"/>
+    <tableColumn id="3" name="P" dataDxfId="18"/>
+    <tableColumn id="4" name="R" dataDxfId="17"/>
+    <tableColumn id="5" name="F" dataDxfId="3">
+      <calculatedColumnFormula>C2*D2*2/(C2+D2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -733,18 +1118,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -757,420 +1144,658 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>0.35680751173699998</v>
+        <v>0.42774566473999998</v>
       </c>
       <c r="D2" s="5">
-        <v>0.85875706214699998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.41807909604499999</v>
+      </c>
+      <c r="E2" s="17">
+        <f>(C2*D2*2)/(C2+D2)</f>
+        <v>0.42285714285709813</v>
+      </c>
+      <c r="F2" s="25">
+        <f>C2*D2*1.3/(0.3*C2+D2)</f>
+        <v>0.42547545333927111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>30</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>0.35327635327599999</v>
+        <v>0.41538461538499999</v>
       </c>
       <c r="D3" s="5">
-        <v>0.70056497175099997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.45762711864400002</v>
+      </c>
+      <c r="E3" s="17">
+        <f>(C3*D3*2)/(C3+D3)</f>
+        <v>0.43548387096792257</v>
+      </c>
+      <c r="F3" s="25">
+        <f>C3*D3*1.3/(0.3*C3+D3)</f>
+        <v>0.42442563482496287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>0.41538461538499999</v>
+        <v>0.35971223021600002</v>
       </c>
       <c r="D4" s="5">
-        <v>0.45762711864400002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.84745762711899997</v>
+      </c>
+      <c r="E4" s="17">
+        <f>(C4*D4*2)/(C4+D4)</f>
+        <v>0.50505050505073845</v>
+      </c>
+      <c r="F4" s="25">
+        <f>C4*D4*1.3/(0.3*C4+D4)</f>
+        <v>0.41480536056177897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>0.59090909090900001</v>
+        <v>0.35971223021600002</v>
       </c>
       <c r="D5" s="5">
-        <v>0.146892655367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.84745762711899997</v>
+      </c>
+      <c r="E5" s="17">
+        <f>(C5*D5*2)/(C5+D5)</f>
+        <v>0.50505050505073845</v>
+      </c>
+      <c r="F5" s="25">
+        <f>C5*D5*1.3/(0.3*C5+D5)</f>
+        <v>0.41480536056177897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>0.35460992907799999</v>
+        <v>0.35885167464099998</v>
       </c>
       <c r="D6" s="5">
         <v>0.84745762711899997</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="17">
+        <f>(C6*D6*2)/(C6+D6)</f>
+        <v>0.50420168067218551</v>
+      </c>
+      <c r="F6" s="25">
+        <f>C6*D6*1.3/(0.3*C6+D6)</f>
+        <v>0.41392485671818663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>0.34782608695700001</v>
+        <v>0.35885167464099998</v>
       </c>
       <c r="D7" s="5">
-        <v>0.67796610169500005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.84745762711899997</v>
+      </c>
+      <c r="E7" s="17">
+        <f>(C7*D7*2)/(C7+D7)</f>
+        <v>0.50420168067218551</v>
+      </c>
+      <c r="F7" s="25">
+        <f>C7*D7*1.3/(0.3*C7+D7)</f>
+        <v>0.41392485671818663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="5">
-        <v>0.42774566473999998</v>
+        <v>0.46153846153799999</v>
       </c>
       <c r="D8" s="5">
-        <v>0.41807909604499999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.30508474576299999</v>
+      </c>
+      <c r="E8" s="17">
+        <f>(C8*D8*2)/(C8+D8)</f>
+        <v>0.3673469387755729</v>
+      </c>
+      <c r="F8" s="25">
+        <f>C8*D8*1.3/(0.3*C8+D8)</f>
+        <v>0.41269841269825047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5">
-        <v>0.66666666666700003</v>
+        <v>0.35680751173699998</v>
       </c>
       <c r="D9" s="5">
-        <v>7.9096045197699999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.85875706214699998</v>
+      </c>
+      <c r="E9" s="17">
+        <f>(C9*D9*2)/(C9+D9)</f>
+        <v>0.5041459369816873</v>
+      </c>
+      <c r="F9" s="25">
+        <f>C9*D9*1.3/(0.3*C9+D9)</f>
+        <v>0.41243999165092637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>0.35629453681700002</v>
+        <v>0.468468468468</v>
       </c>
       <c r="D10" s="5">
-        <v>0.84745762711899997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.29378531073399999</v>
+      </c>
+      <c r="E10" s="17">
+        <f>(C10*D10*2)/(C10+D10)</f>
+        <v>0.361111111110622</v>
+      </c>
+      <c r="F10" s="25">
+        <f>C10*D10*1.3/(0.3*C10+D10)</f>
+        <v>0.41194393662352097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>50</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="5">
-        <v>0.34626865671599999</v>
+        <v>0.35629453681700002</v>
       </c>
       <c r="D11" s="5">
-        <v>0.65536723163800004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.84745762711899997</v>
+      </c>
+      <c r="E11" s="17">
+        <f>(C11*D11*2)/(C11+D11)</f>
+        <v>0.50167224080263662</v>
+      </c>
+      <c r="F11" s="25">
+        <f>C11*D11*1.3/(0.3*C11+D11)</f>
+        <v>0.4113056317231798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.35629453681700002</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.84745762711899997</v>
+      </c>
+      <c r="E12" s="17">
+        <f>(C12*D12*2)/(C12+D12)</f>
+        <v>0.50167224080263662</v>
+      </c>
+      <c r="F12" s="25">
+        <f>C12*D12*1.3/(0.3*C12+D12)</f>
+        <v>0.4113056317231798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.35460992907799999</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.84745762711899997</v>
+      </c>
+      <c r="E13" s="17">
+        <f>(C13*D13*2)/(C13+D13)</f>
+        <v>0.50000000000004785</v>
+      </c>
+      <c r="F13" s="25">
+        <f>C13*D13*1.3/(0.3*C13+D13)</f>
+        <v>0.40957781978576396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="5">
-        <v>0.41935483871000001</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.36723163841799999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.66666666666700003</v>
-      </c>
-      <c r="D13" s="5">
-        <v>7.9096045197699999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
       <c r="C14" s="5">
-        <v>0.35629453681700002</v>
+        <v>0.4453125</v>
       </c>
       <c r="D14" s="5">
-        <v>0.84745762711899997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.32203389830500001</v>
+      </c>
+      <c r="E14" s="17">
+        <f>(C14*D14*2)/(C14+D14)</f>
+        <v>0.37377049180322169</v>
+      </c>
+      <c r="F14" s="25">
+        <f>C14*D14*1.3/(0.3*C14+D14)</f>
+        <v>0.40916620651570562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="5">
-        <v>0.35060975609799999</v>
+        <v>0.37074829931999997</v>
       </c>
       <c r="D15" s="5">
-        <v>0.64971751412400003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.61581920903999998</v>
+      </c>
+      <c r="E15" s="17">
+        <f>(C15*D15*2)/(C15+D15)</f>
+        <v>0.46284501061605093</v>
+      </c>
+      <c r="F15" s="25">
+        <f>C15*D15*1.3/(0.3*C15+D15)</f>
+        <v>0.40823970037483148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" s="5">
+        <v>0.41935483871000001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.36723163841799999</v>
+      </c>
+      <c r="E16" s="17">
+        <f>(C16*D16*2)/(C16+D16)</f>
+        <v>0.39156626506033659</v>
+      </c>
+      <c r="F16" s="25">
+        <f>C16*D16*1.3/(0.3*C16+D16)</f>
+        <v>0.40605478135532808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>100</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.46728971962600002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.28248587570599998</v>
+      </c>
+      <c r="E17" s="17">
+        <f>(C17*D17*2)/(C17+D17)</f>
+        <v>0.35211267605612351</v>
+      </c>
+      <c r="F17" s="25">
+        <f>C17*D17*1.3/(0.3*C17+D17)</f>
+        <v>0.40599625234208608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.428571428571</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D18" s="5">
         <v>0.33898305084699998</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.66666666666700003</v>
-      </c>
-      <c r="D17" s="5">
-        <v>5.64971751412E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>70</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.35885167464099998</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.84745762711899997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="17">
+        <f>(C18*D18*2)/(C18+D18)</f>
+        <v>0.37854889589860108</v>
+      </c>
+      <c r="F18" s="25">
+        <f>C18*D18*1.3/(0.3*C18+D18)</f>
+        <v>0.4039357845671388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
       </c>
       <c r="C19" s="5">
+        <v>0.36156351791500002</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.627118644068</v>
+      </c>
+      <c r="E19" s="17">
+        <f>(C19*D19*2)/(C19+D19)</f>
+        <v>0.45867768595021863</v>
+      </c>
+      <c r="F19" s="25">
+        <f>C19*D19*1.3/(0.3*C19+D19)</f>
+        <v>0.40072202166037663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.35327635327599999</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.70056497175099997</v>
+      </c>
+      <c r="E20" s="17">
+        <f>(C20*D20*2)/(C20+D20)</f>
+        <v>0.46969696969656471</v>
+      </c>
+      <c r="F20" s="25">
+        <f>C20*D20*1.3/(0.3*C20+D20)</f>
+        <v>0.39891116060343362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.35782747603800003</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.63276836158200001</v>
+      </c>
+      <c r="E21" s="17">
+        <f>(C21*D21*2)/(C21+D21)</f>
+        <v>0.45714285714260139</v>
+      </c>
+      <c r="F21" s="25">
+        <f>C21*D21*1.3/(0.3*C21+D21)</f>
+        <v>0.39770554493276383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.35493827160500002</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D22" s="5">
         <v>0.64971751412400003</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>70</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.4453125</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.32203389830500001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>70</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D21" s="5">
-        <v>3.3898305084700001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>80</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.35885167464099998</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.84745762711899997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="17">
+        <f>(C22*D22*2)/(C22+D22)</f>
+        <v>0.45908183632732358</v>
+      </c>
+      <c r="F22" s="25">
+        <f>C22*D22*1.3/(0.3*C22+D22)</f>
+        <v>0.39644656589767391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
       </c>
       <c r="C23" s="5">
-        <v>0.35782747603800003</v>
+        <v>0.35060975609799999</v>
       </c>
       <c r="D23" s="5">
-        <v>0.63276836158200001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.64971751412400003</v>
+      </c>
+      <c r="E23" s="17">
+        <f>(C23*D23*2)/(C23+D23)</f>
+        <v>0.45544554455475367</v>
+      </c>
+      <c r="F23" s="25">
+        <f>C23*D23*1.3/(0.3*C23+D23)</f>
+        <v>0.39228548937326607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="5">
-        <v>0.46153846153799999</v>
+        <v>0.34782608695700001</v>
       </c>
       <c r="D24" s="5">
-        <v>0.30508474576299999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.67796610169500005</v>
+      </c>
+      <c r="E24" s="17">
+        <f>(C24*D24*2)/(C24+D24)</f>
+        <v>0.4597701149429661</v>
+      </c>
+      <c r="F24" s="25">
+        <f>C24*D24*1.3/(0.3*C24+D24)</f>
+        <v>0.39186134137198819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="5">
-        <v>0.35971223021600002</v>
+        <v>0.34626865671599999</v>
       </c>
       <c r="D25" s="5">
-        <v>0.84745762711899997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.65536723163800004</v>
+      </c>
+      <c r="E25" s="17">
+        <f>(C25*D25*2)/(C25+D25)</f>
+        <v>0.45312499999954231</v>
+      </c>
+      <c r="F25" s="25">
+        <f>C25*D25*1.3/(0.3*C25+D25)</f>
+        <v>0.38855964957441314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.59090909090900001</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.146892655367</v>
+      </c>
+      <c r="E26" s="17">
+        <f>(C26*D26*2)/(C26+D26)</f>
+        <v>0.23529411764675442</v>
+      </c>
+      <c r="F26" s="25">
+        <f>C26*D26*1.3/(0.3*C26+D26)</f>
+        <v>0.34809474768247683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7.9096045197699999E-2</v>
+      </c>
+      <c r="E27" s="17">
+        <f>(C27*D27*2)/(C27+D27)</f>
+        <v>0.14141414141408482</v>
+      </c>
+      <c r="F27" s="25">
+        <f>C27*D27*1.3/(0.3*C27+D27)</f>
+        <v>0.24561403508766486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7.9096045197699999E-2</v>
+      </c>
+      <c r="E28" s="17">
+        <f>(C28*D28*2)/(C28+D28)</f>
+        <v>0.14141414141408482</v>
+      </c>
+      <c r="F28" s="25">
+        <f>C28*D28*1.3/(0.3*C28+D28)</f>
+        <v>0.24561403508766486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5.64971751412E-2</v>
+      </c>
+      <c r="E29" s="17">
+        <f>(C29*D29*2)/(C29+D29)</f>
+        <v>0.10416666666659775</v>
+      </c>
+      <c r="F29" s="25">
+        <f>C29*D29*1.3/(0.3*C29+D29)</f>
+        <v>0.19089574155644243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3.3898305084700001E-2</v>
+      </c>
+      <c r="E30" s="17">
+        <f>(C30*D30*2)/(C30+D30)</f>
+        <v>6.4864864864781088E-2</v>
+      </c>
+      <c r="F30" s="25">
+        <f>C30*D30*1.3/(0.3*C30+D30)</f>
+        <v>0.12765957446793536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5">
-        <v>0.36156351791500002</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.627118644068</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>90</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.468468468468</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0.29378531073399999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>100</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.35971223021600002</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0.84745762711899997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>100</v>
-      </c>
-      <c r="B29" s="1">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.37074829931999997</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.61581920903999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>100</v>
-      </c>
-      <c r="B30" s="1">
-        <v>5</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.46728971962600002</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0.28248587570599998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1186,179 +1811,1464 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>0.1</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="F2" s="19">
+        <f>D2*E2*2/(D2+E2)</f>
+        <v>0.4097552388935457</v>
+      </c>
+      <c r="G2" s="19">
+        <f>D2*E2*1.3/(0.3*D2+E2)</f>
+        <v>0.38167531531531534</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L2" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>0.1</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.33729999999999999</v>
+      <c r="C3" s="13">
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>0.31640000000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>0.4078</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="F3" s="19">
+        <f>D3*E3*2/(D3+E3)</f>
+        <v>0.30001841574949623</v>
+      </c>
+      <c r="G3" s="19">
+        <f>D3*E3*1.3/(0.3*D3+E3)</f>
+        <v>0.34980041708375037</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
         <v>0.1</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.4078</v>
+      <c r="C4" s="13">
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>0.23730000000000001</v>
-      </c>
-      <c r="E4" s="2">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F4" s="19">
+        <f>D4*E4*2/(D4+E4)</f>
+        <v>0.27922001588562351</v>
+      </c>
+      <c r="G4" s="19">
+        <f>D4*E4*1.3/(0.3*D4+E4)</f>
+        <v>0.34089169028793082</v>
+      </c>
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>512</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>0.1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="F5" s="19">
+        <f>D5*E5*2/(D5+E5)</f>
+        <v>0.32651589414104332</v>
+      </c>
+      <c r="G5" s="19">
+        <f>D5*E5*1.3/(0.3*D5+E5)</f>
+        <v>0.33223553246006848</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.41752600000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.45762700000000001</v>
+      </c>
+      <c r="F6" s="19">
+        <f>D6*E6*2/(D6+E6)</f>
+        <v>0.43665775196337098</v>
+      </c>
+      <c r="G6" s="19">
+        <f>D6*E6*1.3/(0.3*D6+E6)</f>
+        <v>0.42614341983630388</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.340862</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.93785300000000005</v>
+      </c>
+      <c r="F7" s="19">
+        <f>D7*E7*2/(D7+E7)</f>
+        <v>0.49999952966219996</v>
+      </c>
+      <c r="G7" s="19">
+        <f>D7*E7*1.3/(0.3*D7+E7)</f>
+        <v>0.39955518626251263</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.340862</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.93785300000000005</v>
+      </c>
+      <c r="F8" s="19">
+        <f>D8*E8*2/(D8+E8)</f>
+        <v>0.49999952966219996</v>
+      </c>
+      <c r="G8" s="19">
+        <f>D8*E8*1.3/(0.3*D8+E8)</f>
+        <v>0.39955518626251263</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>512</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.37846200000000002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.69491499999999995</v>
+      </c>
+      <c r="F9" s="19">
+        <f>D9*E9*2/(D9+E9)</f>
+        <v>0.4900401643225073</v>
+      </c>
+      <c r="G9" s="19">
+        <f>D9*E9*1.3/(0.3*D9+E9)</f>
+        <v>0.4229044152305092</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.24390200000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5.6496999999999999E-2</v>
+      </c>
+      <c r="F10" s="19">
+        <f>D10*E10*2/(D10+E10)</f>
+        <v>9.1742857293133459E-2</v>
+      </c>
+      <c r="G10" s="19">
+        <f>D10*E10*1.3/(0.3*D10+E10)</f>
+        <v>0.13815055327776563</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.38483099999999998</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.774011</v>
+      </c>
+      <c r="F11" s="19">
+        <f>D11*E11*2/(D11+E11)</f>
+        <v>0.51407081749021877</v>
+      </c>
+      <c r="G11" s="19">
+        <f>D11*E11*1.3/(0.3*D11+E11)</f>
+        <v>0.43534540584138498</v>
+      </c>
+      <c r="H11" s="10">
+        <v>2</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.35652200000000001</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.92655399999999999</v>
+      </c>
+      <c r="F12" s="19">
+        <f>D12*E12*2/(D12+E12)</f>
+        <v>0.51491398044698833</v>
+      </c>
+      <c r="G12" s="19">
+        <f>D12*E12*1.3/(0.3*D12+E12)</f>
+        <v>0.41551383289576321</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.36061399999999999</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.79661000000000004</v>
+      </c>
+      <c r="F13" s="19">
+        <f>D13*E13*2/(D13+E13)</f>
+        <v>0.49647901968849595</v>
+      </c>
+      <c r="G13" s="19">
+        <f>D13*E13*1.3/(0.3*D13+E13)</f>
+        <v>0.41274505749705298</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.34661399999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.98305100000000001</v>
+      </c>
+      <c r="F14" s="19">
+        <f>D14*E14*2/(D14+E14)</f>
+        <v>0.51251892666799537</v>
+      </c>
+      <c r="G14" s="19">
+        <f>D14*E14*1.3/(0.3*D14+E14)</f>
+        <v>0.40749463412794723</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.35664299999999999</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.288136</v>
+      </c>
+      <c r="F15" s="19">
+        <f>D15*E15*2/(D15+E15)</f>
+        <v>0.31875010646438551</v>
+      </c>
+      <c r="G15" s="19">
+        <f>D15*E15*1.3/(0.3*D15+E15)</f>
+        <v>0.33809269249199442</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.55932199999999999</v>
+      </c>
+      <c r="F16" s="19">
+        <f>D16*E16*2/(D16+E16)</f>
+        <v>0.39053253611568189</v>
+      </c>
+      <c r="G16" s="19">
+        <f>D16*E16*1.3/(0.3*D16+E16)</f>
+        <v>0.33594361503229525</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.30128199999999999</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.53107300000000002</v>
+      </c>
+      <c r="F17" s="19">
+        <f>D17*E17*2/(D17+E17)</f>
+        <v>0.38445791900330994</v>
+      </c>
+      <c r="G17" s="19">
+        <f>D17*E17*1.3/(0.3*D17+E17)</f>
+        <v>0.33470273154886188</v>
+      </c>
+      <c r="H17" s="10">
+        <v>2</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.35042699999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.23163800000000001</v>
+      </c>
+      <c r="F18" s="19">
+        <f>D18*E18*2/(D18+E18)</f>
+        <v>0.27891115056222238</v>
+      </c>
+      <c r="G18" s="19">
+        <f>D18*E18*1.3/(0.3*D18+E18)</f>
+        <v>0.31334469904720219</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.29166700000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.118644</v>
+      </c>
+      <c r="F19" s="19">
+        <f>D19*E19*2/(D19+E19)</f>
+        <v>0.16867468602109134</v>
+      </c>
+      <c r="G19" s="19">
+        <f>D19*E19*1.3/(0.3*D19+E19)</f>
+        <v>0.21822551027363871</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.35888500000000001</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.58192100000000002</v>
+      </c>
+      <c r="F20" s="19">
+        <f>D20*E20*2/(D20+E20)</f>
+        <v>0.44396553186310461</v>
+      </c>
+      <c r="G20" s="19">
+        <f>D20*E20*1.3/(0.3*D20+E20)</f>
+        <v>0.39370772703714479</v>
+      </c>
+      <c r="H20" s="11">
+        <v>2</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.355603</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.932203</v>
+      </c>
+      <c r="F21" s="19">
+        <f>D21*E21*2/(D21+E21)</f>
+        <v>0.51482006359498245</v>
+      </c>
+      <c r="G21" s="19">
+        <f>D21*E21*1.3/(0.3*D21+E21)</f>
+        <v>0.41481289529243831</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.4078</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
         <v>0.36049999999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>0.47460000000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="11">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>0.1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
         <v>0.42049999999999998</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>0.20899999999999999</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <v>512</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="11">
         <v>1.220703125E-4</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.41752600000000001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.45762700000000001</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.340862</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.93785300000000005</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.340862</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.93785300000000005</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>512</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.35652200000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.92655399999999999</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.35042699999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.23163800000000001</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.38483099999999998</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.774011</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.29166700000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.118644</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.282609</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7.3445999999999997E-2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.35664299999999999</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.288136</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.55932199999999999</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.30128199999999999</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.53107300000000002</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.34661399999999998</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.98305100000000001</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1370,21 +3280,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="208" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -1397,159 +3307,206 @@
       <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>5000</v>
       </c>
       <c r="B2" s="7">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.33093525179900002</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.77966101694900003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="11" t="e">
+        <f>C2*D2*2/(C2+D2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="B3" s="7">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.37751004016099998</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.53107344632800002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="e">
+        <f>C3*D3*2/(C3+D3)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="B4" s="7">
         <v>7</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.32307692307699998</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.118644067797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="11" t="e">
+        <f>C4*D4*2/(C4+D4)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>5000</v>
       </c>
       <c r="B5" s="7">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.33093525179900002</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.77966101694900003</v>
+      </c>
+      <c r="E5" s="11">
+        <f>C5*D5*2/(C5+D5)</f>
+        <v>0.46464646464687015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>6000</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>0.33250000000000002</v>
       </c>
       <c r="D6" s="5">
         <v>0.75141242937899999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="11">
+        <f>C6*D6*2/(C6+D6)</f>
+        <v>0.4610051993068473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.345345345345</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.64971751412400003</v>
+      </c>
+      <c r="E7" s="11">
+        <f>C7*D7*2/(C7+D7)</f>
+        <v>0.45098039215649749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>5000</v>
+      </c>
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
-        <v>0.36190476190499998</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.429378531073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>6000</v>
-      </c>
-      <c r="B8" s="7">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.41025641025600001</v>
+      <c r="C8" s="21">
+        <v>0.37751004016099998</v>
       </c>
       <c r="D8" s="5">
-        <v>9.0395480225999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.53107344632800002</v>
+      </c>
+      <c r="E8" s="11">
+        <f>C8*D8*2/(C8+D8)</f>
+        <v>0.44131455399096381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>6000</v>
       </c>
       <c r="B9" s="7">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.36190476190499998</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.429378531073</v>
+      </c>
+      <c r="E9" s="11">
+        <f>C9*D9*2/(C9+D9)</f>
+        <v>0.39276485788109039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>10000</v>
       </c>
       <c r="B10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
-        <v>0.345345345345</v>
+        <v>0.37362637362599999</v>
       </c>
       <c r="D10" s="5">
-        <v>0.64971751412400003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.19209039548000001</v>
+      </c>
+      <c r="E10" s="11">
+        <f>C10*D10*2/(C10+D10)</f>
+        <v>0.25373134328329877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="B11" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
-        <v>0.37362637362599999</v>
+        <v>0.32307692307699998</v>
       </c>
       <c r="D11" s="5">
-        <v>0.19209039548000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.118644067797</v>
+      </c>
+      <c r="E11" s="11">
+        <f>C11*D11*2/(C11+D11)</f>
+        <v>0.17355371900869265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="B12" s="7">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
+      <c r="C12" s="20">
+        <v>0.41025641025600001</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9.0395480225999997E-2</v>
+      </c>
+      <c r="E12" s="11">
+        <f>C12*D12*2/(C12+D12)</f>
+        <v>0.14814814814813659</v>
       </c>
     </row>
   </sheetData>

--- a/data/result/QA_subtitle.xlsx
+++ b/data/result/QA_subtitle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="简单的问句探测方法" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -474,7 +474,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,9 +517,6 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,13 +536,19 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -586,7 +589,7 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
+      <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -594,16 +597,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -662,26 +677,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -694,6 +689,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -736,6 +735,10 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -778,11 +781,11 @@
     <tableColumn id="2" name="minlen" dataDxfId="37"/>
     <tableColumn id="3" name="P" dataDxfId="36"/>
     <tableColumn id="4" name="R" dataDxfId="35"/>
-    <tableColumn id="5" name="F" dataDxfId="2">
+    <tableColumn id="5" name="F" dataDxfId="34">
       <calculatedColumnFormula>(C2*D2*2)/(C2+D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="E" dataDxfId="0">
-      <calculatedColumnFormula>C2*D2*1.3/(0.3*C2+D2)</calculatedColumnFormula>
+      <calculatedColumnFormula>C2*D2*1.2/(0.2*C2+D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -790,64 +793,64 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:L21" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:L21" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:L21"/>
-  <sortState ref="A2:L19">
-    <sortCondition descending="1" ref="L1:L19"/>
+  <sortState ref="A2:L21">
+    <sortCondition descending="1" ref="B1:B21"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="2" name="pattern_mine" dataDxfId="32"/>
-    <tableColumn id="3" name="minsup" dataDxfId="31"/>
-    <tableColumn id="11" name="minlen" dataDxfId="30"/>
-    <tableColumn id="4" name="precision" dataDxfId="29"/>
-    <tableColumn id="5" name="recall" dataDxfId="28"/>
-    <tableColumn id="10" name="F" dataDxfId="4">
+    <tableColumn id="2" name="pattern_mine" dataDxfId="31"/>
+    <tableColumn id="3" name="minsup" dataDxfId="30"/>
+    <tableColumn id="11" name="minlen" dataDxfId="29"/>
+    <tableColumn id="4" name="precision" dataDxfId="28"/>
+    <tableColumn id="5" name="recall" dataDxfId="27"/>
+    <tableColumn id="10" name="F" dataDxfId="26">
       <calculatedColumnFormula>D2*E2*2/(D2+E2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="E" dataDxfId="1">
-      <calculatedColumnFormula>D2*E2*1.3/(0.3*D2+E2)</calculatedColumnFormula>
+      <calculatedColumnFormula>D2*E2*1.2/(0.2*D2+E2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="t" dataDxfId="27"/>
-    <tableColumn id="7" name="s" dataDxfId="26"/>
-    <tableColumn id="8" name="c" dataDxfId="25"/>
-    <tableColumn id="9" name="g" dataDxfId="24"/>
-    <tableColumn id="1" name="keywords" dataDxfId="23"/>
+    <tableColumn id="6" name="t" dataDxfId="25"/>
+    <tableColumn id="7" name="s" dataDxfId="24"/>
+    <tableColumn id="8" name="c" dataDxfId="23"/>
+    <tableColumn id="9" name="g" dataDxfId="22"/>
+    <tableColumn id="1" name="keywords" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_5" displayName="表3_5" ref="A1:J18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_5" displayName="表3_5" ref="A1:J18" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:J18"/>
   <tableColumns count="10">
-    <tableColumn id="2" name="pattern_mine" dataDxfId="14"/>
-    <tableColumn id="3" name="minsup" dataDxfId="13"/>
-    <tableColumn id="11" name="minlen" dataDxfId="12"/>
-    <tableColumn id="4" name="precision" dataDxfId="11"/>
-    <tableColumn id="5" name="recall" dataDxfId="10"/>
-    <tableColumn id="6" name="t" dataDxfId="9"/>
-    <tableColumn id="7" name="s" dataDxfId="8"/>
-    <tableColumn id="8" name="c" dataDxfId="7"/>
-    <tableColumn id="9" name="g" dataDxfId="6"/>
-    <tableColumn id="1" name="keywords" dataDxfId="5"/>
+    <tableColumn id="2" name="pattern_mine" dataDxfId="18"/>
+    <tableColumn id="3" name="minsup" dataDxfId="17"/>
+    <tableColumn id="11" name="minlen" dataDxfId="16"/>
+    <tableColumn id="4" name="precision" dataDxfId="15"/>
+    <tableColumn id="5" name="recall" dataDxfId="14"/>
+    <tableColumn id="6" name="t" dataDxfId="13"/>
+    <tableColumn id="7" name="s" dataDxfId="12"/>
+    <tableColumn id="8" name="c" dataDxfId="11"/>
+    <tableColumn id="9" name="g" dataDxfId="10"/>
+    <tableColumn id="1" name="keywords" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:E12"/>
   <sortState ref="A2:E12">
     <sortCondition descending="1" ref="E1:E12"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="minsup" dataDxfId="20"/>
-    <tableColumn id="2" name="minlen" dataDxfId="19"/>
-    <tableColumn id="3" name="P" dataDxfId="18"/>
-    <tableColumn id="4" name="R" dataDxfId="17"/>
-    <tableColumn id="5" name="F" dataDxfId="3">
+    <tableColumn id="1" name="minsup" dataDxfId="6"/>
+    <tableColumn id="2" name="minlen" dataDxfId="5"/>
+    <tableColumn id="3" name="P" dataDxfId="4"/>
+    <tableColumn id="4" name="R" dataDxfId="3"/>
+    <tableColumn id="5" name="F" dataDxfId="2">
       <calculatedColumnFormula>C2*D2*2/(C2+D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1121,14 +1124,14 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="26" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1144,187 +1147,187 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>0.42774566473999998</v>
+        <v>0.468468468468</v>
       </c>
       <c r="D2" s="5">
-        <v>0.41807909604499999</v>
-      </c>
-      <c r="E2" s="17">
+        <v>0.29378531073399999</v>
+      </c>
+      <c r="E2" s="16">
         <f>(C2*D2*2)/(C2+D2)</f>
-        <v>0.42285714285709813</v>
-      </c>
-      <c r="F2" s="25">
-        <f>C2*D2*1.3/(0.3*C2+D2)</f>
-        <v>0.42547545333927111</v>
+        <v>0.361111111110622</v>
+      </c>
+      <c r="F2" s="24">
+        <f>C2*D2*1.2/(0.2*C2+D2)</f>
+        <v>0.42622950819623567</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>0.41538461538499999</v>
+        <v>0.42774566473999998</v>
       </c>
       <c r="D3" s="5">
-        <v>0.45762711864400002</v>
-      </c>
-      <c r="E3" s="17">
+        <v>0.41807909604499999</v>
+      </c>
+      <c r="E3" s="16">
         <f>(C3*D3*2)/(C3+D3)</f>
-        <v>0.43548387096792257</v>
-      </c>
-      <c r="F3" s="25">
-        <f>C3*D3*1.3/(0.3*C3+D3)</f>
-        <v>0.42442563482496287</v>
+        <v>0.42285714285709813</v>
+      </c>
+      <c r="F3" s="24">
+        <f>C3*D3*1.2/(0.2*C3+D3)</f>
+        <v>0.42610364683307478</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>0.35971223021600002</v>
+        <v>0.46153846153799999</v>
       </c>
       <c r="D4" s="5">
-        <v>0.84745762711899997</v>
-      </c>
-      <c r="E4" s="17">
+        <v>0.30508474576299999</v>
+      </c>
+      <c r="E4" s="16">
         <f>(C4*D4*2)/(C4+D4)</f>
-        <v>0.50505050505073845</v>
-      </c>
-      <c r="F4" s="25">
-        <f>C4*D4*1.3/(0.3*C4+D4)</f>
-        <v>0.41480536056177897</v>
+        <v>0.3673469387755729</v>
+      </c>
+      <c r="F4" s="24">
+        <f>C4*D4*1.2/(0.2*C4+D4)</f>
+        <v>0.42519685039346761</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5">
-        <v>0.35971223021600002</v>
+        <v>0.41538461538499999</v>
       </c>
       <c r="D5" s="5">
-        <v>0.84745762711899997</v>
-      </c>
-      <c r="E5" s="17">
+        <v>0.45762711864400002</v>
+      </c>
+      <c r="E5" s="16">
         <f>(C5*D5*2)/(C5+D5)</f>
-        <v>0.50505050505073845</v>
-      </c>
-      <c r="F5" s="25">
-        <f>C5*D5*1.3/(0.3*C5+D5)</f>
-        <v>0.41480536056177897</v>
+        <v>0.43548387096792257</v>
+      </c>
+      <c r="F5" s="24">
+        <f>C5*D5*1.2/(0.2*C5+D5)</f>
+        <v>0.42187500000032091</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
-        <v>0.35885167464099998</v>
+        <v>0.46728971962600002</v>
       </c>
       <c r="D6" s="5">
-        <v>0.84745762711899997</v>
-      </c>
-      <c r="E6" s="17">
+        <v>0.28248587570599998</v>
+      </c>
+      <c r="E6" s="16">
         <f>(C6*D6*2)/(C6+D6)</f>
-        <v>0.50420168067218551</v>
-      </c>
-      <c r="F6" s="25">
-        <f>C6*D6*1.3/(0.3*C6+D6)</f>
-        <v>0.41392485671818663</v>
+        <v>0.35211267605612351</v>
+      </c>
+      <c r="F6" s="24">
+        <f>C6*D6*1.2/(0.2*C6+D6)</f>
+        <v>0.42134831460654798</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
-        <v>0.35885167464099998</v>
+        <v>0.4453125</v>
       </c>
       <c r="D7" s="5">
-        <v>0.84745762711899997</v>
-      </c>
-      <c r="E7" s="17">
+        <v>0.32203389830500001</v>
+      </c>
+      <c r="E7" s="16">
         <f>(C7*D7*2)/(C7+D7)</f>
-        <v>0.50420168067218551</v>
-      </c>
-      <c r="F7" s="25">
-        <f>C7*D7*1.3/(0.3*C7+D7)</f>
-        <v>0.41392485671818663</v>
+        <v>0.37377049180322169</v>
+      </c>
+      <c r="F7" s="24">
+        <f>C7*D7*1.2/(0.2*C7+D7)</f>
+        <v>0.41860465116276691</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="5">
-        <v>0.46153846153799999</v>
+        <v>0.428571428571</v>
       </c>
       <c r="D8" s="5">
-        <v>0.30508474576299999</v>
-      </c>
-      <c r="E8" s="17">
+        <v>0.33898305084699998</v>
+      </c>
+      <c r="E8" s="16">
         <f>(C8*D8*2)/(C8+D8)</f>
-        <v>0.3673469387755729</v>
-      </c>
-      <c r="F8" s="25">
-        <f>C8*D8*1.3/(0.3*C8+D8)</f>
-        <v>0.41269841269825047</v>
+        <v>0.37854889589860108</v>
+      </c>
+      <c r="F8" s="24">
+        <f>C8*D8*1.2/(0.2*C8+D8)</f>
+        <v>0.4104903078672914</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
-        <v>0.35680751173699998</v>
+        <v>0.41935483871000001</v>
       </c>
       <c r="D9" s="5">
-        <v>0.85875706214699998</v>
-      </c>
-      <c r="E9" s="17">
+        <v>0.36723163841799999</v>
+      </c>
+      <c r="E9" s="16">
         <f>(C9*D9*2)/(C9+D9)</f>
-        <v>0.5041459369816873</v>
-      </c>
-      <c r="F9" s="25">
-        <f>C9*D9*1.3/(0.3*C9+D9)</f>
-        <v>0.41243999165092637</v>
+        <v>0.39156626506033659</v>
+      </c>
+      <c r="F9" s="24">
+        <f>C9*D9*1.2/(0.2*C9+D9)</f>
+        <v>0.40966386554645862</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1332,131 +1335,131 @@
         <v>90</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="5">
-        <v>0.468468468468</v>
+        <v>0.35971223021600002</v>
       </c>
       <c r="D10" s="5">
-        <v>0.29378531073399999</v>
-      </c>
-      <c r="E10" s="17">
+        <v>0.84745762711899997</v>
+      </c>
+      <c r="E10" s="16">
         <f>(C10*D10*2)/(C10+D10)</f>
-        <v>0.361111111110622</v>
-      </c>
-      <c r="F10" s="25">
-        <f>C10*D10*1.3/(0.3*C10+D10)</f>
-        <v>0.41194393662352097</v>
+        <v>0.50505050505073845</v>
+      </c>
+      <c r="F10" s="24">
+        <f>C10*D10*1.2/(0.2*C10+D10)</f>
+        <v>0.39787798408506975</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="5">
-        <v>0.35629453681700002</v>
+        <v>0.35971223021600002</v>
       </c>
       <c r="D11" s="5">
         <v>0.84745762711899997</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <f>(C11*D11*2)/(C11+D11)</f>
-        <v>0.50167224080263662</v>
-      </c>
-      <c r="F11" s="25">
-        <f>C11*D11*1.3/(0.3*C11+D11)</f>
-        <v>0.4113056317231798</v>
+        <v>0.50505050505073845</v>
+      </c>
+      <c r="F11" s="24">
+        <f>C11*D11*1.2/(0.2*C11+D11)</f>
+        <v>0.39787798408506975</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="5">
-        <v>0.35629453681700002</v>
+        <v>0.37074829931999997</v>
       </c>
       <c r="D12" s="5">
-        <v>0.84745762711899997</v>
-      </c>
-      <c r="E12" s="17">
+        <v>0.61581920903999998</v>
+      </c>
+      <c r="E12" s="16">
         <f>(C12*D12*2)/(C12+D12)</f>
-        <v>0.50167224080263662</v>
-      </c>
-      <c r="F12" s="25">
-        <f>C12*D12*1.3/(0.3*C12+D12)</f>
-        <v>0.4113056317231798</v>
+        <v>0.46284501061605093</v>
+      </c>
+      <c r="F12" s="24">
+        <f>C12*D12*1.2/(0.2*C12+D12)</f>
+        <v>0.39708561020065569</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="5">
-        <v>0.35460992907799999</v>
+        <v>0.35885167464099998</v>
       </c>
       <c r="D13" s="5">
         <v>0.84745762711899997</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f>(C13*D13*2)/(C13+D13)</f>
-        <v>0.50000000000004785</v>
-      </c>
-      <c r="F13" s="25">
-        <f>C13*D13*1.3/(0.3*C13+D13)</f>
-        <v>0.40957781978576396</v>
+        <v>0.50420168067218551</v>
+      </c>
+      <c r="F13" s="24">
+        <f>C13*D13*1.2/(0.2*C13+D13)</f>
+        <v>0.39700044111146299</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5">
-        <v>0.4453125</v>
+        <v>0.35885167464099998</v>
       </c>
       <c r="D14" s="5">
-        <v>0.32203389830500001</v>
-      </c>
-      <c r="E14" s="17">
+        <v>0.84745762711899997</v>
+      </c>
+      <c r="E14" s="16">
         <f>(C14*D14*2)/(C14+D14)</f>
-        <v>0.37377049180322169</v>
-      </c>
-      <c r="F14" s="25">
-        <f>C14*D14*1.3/(0.3*C14+D14)</f>
-        <v>0.40916620651570562</v>
+        <v>0.50420168067218551</v>
+      </c>
+      <c r="F14" s="24">
+        <f>C14*D14*1.2/(0.2*C14+D14)</f>
+        <v>0.39700044111146299</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5">
-        <v>0.37074829931999997</v>
+        <v>0.35680751173699998</v>
       </c>
       <c r="D15" s="5">
-        <v>0.61581920903999998</v>
-      </c>
-      <c r="E15" s="17">
+        <v>0.85875706214699998</v>
+      </c>
+      <c r="E15" s="16">
         <f>(C15*D15*2)/(C15+D15)</f>
-        <v>0.46284501061605093</v>
-      </c>
-      <c r="F15" s="25">
-        <f>C15*D15*1.3/(0.3*C15+D15)</f>
-        <v>0.40823970037483148</v>
+        <v>0.5041459369816873</v>
+      </c>
+      <c r="F15" s="24">
+        <f>C15*D15*1.2/(0.2*C15+D15)</f>
+        <v>0.39531859557858612</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1464,109 +1467,109 @@
         <v>50</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5">
-        <v>0.41935483871000001</v>
+        <v>0.35629453681700002</v>
       </c>
       <c r="D16" s="5">
-        <v>0.36723163841799999</v>
-      </c>
-      <c r="E16" s="17">
+        <v>0.84745762711899997</v>
+      </c>
+      <c r="E16" s="16">
         <f>(C16*D16*2)/(C16+D16)</f>
-        <v>0.39156626506033659</v>
-      </c>
-      <c r="F16" s="25">
-        <f>C16*D16*1.3/(0.3*C16+D16)</f>
-        <v>0.40605478135532808</v>
+        <v>0.50167224080263662</v>
+      </c>
+      <c r="F16" s="24">
+        <f>C16*D16*1.2/(0.2*C16+D16)</f>
+        <v>0.3943908851883397</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="5">
-        <v>0.46728971962600002</v>
+        <v>0.35629453681700002</v>
       </c>
       <c r="D17" s="5">
-        <v>0.28248587570599998</v>
-      </c>
-      <c r="E17" s="17">
+        <v>0.84745762711899997</v>
+      </c>
+      <c r="E17" s="16">
         <f>(C17*D17*2)/(C17+D17)</f>
-        <v>0.35211267605612351</v>
-      </c>
-      <c r="F17" s="25">
-        <f>C17*D17*1.3/(0.3*C17+D17)</f>
-        <v>0.40599625234208608</v>
+        <v>0.50167224080263662</v>
+      </c>
+      <c r="F17" s="24">
+        <f>C17*D17*1.2/(0.2*C17+D17)</f>
+        <v>0.3943908851883397</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="5">
-        <v>0.428571428571</v>
+        <v>0.59090909090900001</v>
       </c>
       <c r="D18" s="5">
-        <v>0.33898305084699998</v>
-      </c>
-      <c r="E18" s="17">
+        <v>0.146892655367</v>
+      </c>
+      <c r="E18" s="16">
         <f>(C18*D18*2)/(C18+D18)</f>
-        <v>0.37854889589860108</v>
-      </c>
-      <c r="F18" s="25">
-        <f>C18*D18*1.3/(0.3*C18+D18)</f>
-        <v>0.4039357845671388</v>
+        <v>0.23529411764675442</v>
+      </c>
+      <c r="F18" s="24">
+        <f>C18*D18*1.2/(0.2*C18+D18)</f>
+        <v>0.39294710327424942</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5">
-        <v>0.36156351791500002</v>
+        <v>0.35460992907799999</v>
       </c>
       <c r="D19" s="5">
-        <v>0.627118644068</v>
-      </c>
-      <c r="E19" s="17">
+        <v>0.84745762711899997</v>
+      </c>
+      <c r="E19" s="16">
         <f>(C19*D19*2)/(C19+D19)</f>
-        <v>0.45867768595021863</v>
-      </c>
-      <c r="F19" s="25">
-        <f>C19*D19*1.3/(0.3*C19+D19)</f>
-        <v>0.40072202166037663</v>
+        <v>0.50000000000004785</v>
+      </c>
+      <c r="F19" s="24">
+        <f>C19*D19*1.2/(0.2*C19+D19)</f>
+        <v>0.39267015706806108</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" s="5">
-        <v>0.35327635327599999</v>
+        <v>0.36156351791500002</v>
       </c>
       <c r="D20" s="5">
-        <v>0.70056497175099997</v>
-      </c>
-      <c r="E20" s="17">
+        <v>0.627118644068</v>
+      </c>
+      <c r="E20" s="16">
         <f>(C20*D20*2)/(C20+D20)</f>
-        <v>0.46969696969656471</v>
-      </c>
-      <c r="F20" s="25">
-        <f>C20*D20*1.3/(0.3*C20+D20)</f>
-        <v>0.39891116060343362</v>
+        <v>0.45867768595021863</v>
+      </c>
+      <c r="F20" s="24">
+        <f>C20*D20*1.2/(0.2*C20+D20)</f>
+        <v>0.38901869158849955</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1582,123 +1585,123 @@
       <c r="D21" s="5">
         <v>0.63276836158200001</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <f>(C21*D21*2)/(C21+D21)</f>
         <v>0.45714285714260139</v>
       </c>
-      <c r="F21" s="25">
-        <f>C21*D21*1.3/(0.3*C21+D21)</f>
-        <v>0.39770554493276383</v>
+      <c r="F21" s="24">
+        <f>C21*D21*1.2/(0.2*C21+D21)</f>
+        <v>0.38576349024077911</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1">
         <v>4</v>
       </c>
       <c r="C22" s="5">
-        <v>0.35493827160500002</v>
+        <v>0.35327635327599999</v>
       </c>
       <c r="D22" s="5">
-        <v>0.64971751412400003</v>
-      </c>
-      <c r="E22" s="17">
+        <v>0.70056497175099997</v>
+      </c>
+      <c r="E22" s="16">
         <f>(C22*D22*2)/(C22+D22)</f>
-        <v>0.45908183632732358</v>
-      </c>
-      <c r="F22" s="25">
-        <f>C22*D22*1.3/(0.3*C22+D22)</f>
-        <v>0.39644656589767391</v>
+        <v>0.46969696969656471</v>
+      </c>
+      <c r="F22" s="24">
+        <f>C22*D22*1.2/(0.2*C22+D22)</f>
+        <v>0.38509316770149271</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
       </c>
       <c r="C23" s="5">
-        <v>0.35060975609799999</v>
+        <v>0.35493827160500002</v>
       </c>
       <c r="D23" s="5">
         <v>0.64971751412400003</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <f>(C23*D23*2)/(C23+D23)</f>
-        <v>0.45544554455475367</v>
-      </c>
-      <c r="F23" s="25">
-        <f>C23*D23*1.3/(0.3*C23+D23)</f>
-        <v>0.39228548937326607</v>
+        <v>0.45908183632732358</v>
+      </c>
+      <c r="F23" s="24">
+        <f>C23*D23*1.2/(0.2*C23+D23)</f>
+        <v>0.3839732888147343</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
       </c>
       <c r="C24" s="5">
-        <v>0.34782608695700001</v>
+        <v>0.35060975609799999</v>
       </c>
       <c r="D24" s="5">
-        <v>0.67796610169500005</v>
-      </c>
-      <c r="E24" s="17">
+        <v>0.64971751412400003</v>
+      </c>
+      <c r="E24" s="16">
         <f>(C24*D24*2)/(C24+D24)</f>
-        <v>0.4597701149429661</v>
-      </c>
-      <c r="F24" s="25">
-        <f>C24*D24*1.3/(0.3*C24+D24)</f>
-        <v>0.39186134137198819</v>
+        <v>0.45544554455475367</v>
+      </c>
+      <c r="F24" s="24">
+        <f>C24*D24*1.2/(0.2*C24+D24)</f>
+        <v>0.3797468354434505</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
       </c>
       <c r="C25" s="5">
-        <v>0.34626865671599999</v>
+        <v>0.34782608695700001</v>
       </c>
       <c r="D25" s="5">
-        <v>0.65536723163800004</v>
-      </c>
-      <c r="E25" s="17">
+        <v>0.67796610169500005</v>
+      </c>
+      <c r="E25" s="16">
         <f>(C25*D25*2)/(C25+D25)</f>
-        <v>0.45312499999954231</v>
-      </c>
-      <c r="F25" s="25">
-        <f>C25*D25*1.3/(0.3*C25+D25)</f>
-        <v>0.38855964957441314</v>
+        <v>0.4597701149429661</v>
+      </c>
+      <c r="F25" s="24">
+        <f>C25*D25*1.2/(0.2*C25+D25)</f>
+        <v>0.37854889589953011</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="5">
-        <v>0.59090909090900001</v>
+        <v>0.34626865671599999</v>
       </c>
       <c r="D26" s="5">
-        <v>0.146892655367</v>
-      </c>
-      <c r="E26" s="17">
+        <v>0.65536723163800004</v>
+      </c>
+      <c r="E26" s="16">
         <f>(C26*D26*2)/(C26+D26)</f>
-        <v>0.23529411764675442</v>
-      </c>
-      <c r="F26" s="25">
-        <f>C26*D26*1.3/(0.3*C26+D26)</f>
-        <v>0.34809474768247683</v>
+        <v>0.45312499999954231</v>
+      </c>
+      <c r="F26" s="24">
+        <f>C26*D26*1.2/(0.2*C26+D26)</f>
+        <v>0.37580993520475048</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1714,13 +1717,13 @@
       <c r="D27" s="5">
         <v>7.9096045197699999E-2</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <f>(C27*D27*2)/(C27+D27)</f>
         <v>0.14141414141408482</v>
       </c>
-      <c r="F27" s="25">
-        <f>C27*D27*1.3/(0.3*C27+D27)</f>
-        <v>0.24561403508766486</v>
+      <c r="F27" s="24">
+        <f>C27*D27*1.2/(0.2*C27+D27)</f>
+        <v>0.2978723404254926</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1736,13 +1739,13 @@
       <c r="D28" s="5">
         <v>7.9096045197699999E-2</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="16">
         <f>(C28*D28*2)/(C28+D28)</f>
         <v>0.14141414141408482</v>
       </c>
-      <c r="F28" s="25">
-        <f>C28*D28*1.3/(0.3*C28+D28)</f>
-        <v>0.24561403508766486</v>
+      <c r="F28" s="24">
+        <f>C28*D28*1.2/(0.2*C28+D28)</f>
+        <v>0.2978723404254926</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1758,13 +1761,13 @@
       <c r="D29" s="5">
         <v>5.64971751412E-2</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="16">
         <f>(C29*D29*2)/(C29+D29)</f>
         <v>0.10416666666659775</v>
       </c>
-      <c r="F29" s="25">
-        <f>C29*D29*1.3/(0.3*C29+D29)</f>
-        <v>0.19089574155644243</v>
+      <c r="F29" s="24">
+        <f>C29*D29*1.2/(0.2*C29+D29)</f>
+        <v>0.23809523809514641</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1780,22 +1783,22 @@
       <c r="D30" s="5">
         <v>3.3898305084700001E-2</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <f>(C30*D30*2)/(C30+D30)</f>
         <v>6.4864864864781088E-2</v>
       </c>
-      <c r="F30" s="25">
-        <f>C30*D30*1.3/(0.3*C30+D30)</f>
-        <v>0.12765957446793536</v>
+      <c r="F30" s="24">
+        <f>C30*D30*1.2/(0.2*C30+D30)</f>
+        <v>0.16589861751133805</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1814,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1873,30 +1876,30 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C2" s="13">
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0.36049999999999999</v>
+        <v>0.35888500000000001</v>
       </c>
       <c r="E2" s="5">
-        <v>0.47460000000000002</v>
-      </c>
-      <c r="F2" s="19">
+        <v>0.58192100000000002</v>
+      </c>
+      <c r="F2" s="18">
         <f>D2*E2*2/(D2+E2)</f>
-        <v>0.4097552388935457</v>
-      </c>
-      <c r="G2" s="19">
-        <f>D2*E2*1.3/(0.3*D2+E2)</f>
-        <v>0.38167531531531534</v>
+        <v>0.44396553186310461</v>
+      </c>
+      <c r="G2" s="18">
+        <f>D2*E2*1.2/(0.2*D2+E2)</f>
+        <v>0.38337468020706805</v>
       </c>
       <c r="H2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -1905,35 +1908,35 @@
         <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C3" s="13">
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>0.4078</v>
+        <v>0.36011900000000002</v>
       </c>
       <c r="E3" s="5">
-        <v>0.23730000000000001</v>
-      </c>
-      <c r="F3" s="19">
+        <v>0.683616</v>
+      </c>
+      <c r="F3" s="18">
         <f>D3*E3*2/(D3+E3)</f>
-        <v>0.30001841574949623</v>
-      </c>
-      <c r="G3" s="19">
-        <f>D3*E3*1.3/(0.3*D3+E3)</f>
-        <v>0.34980041708375037</v>
+        <v>0.47173489497621518</v>
+      </c>
+      <c r="G3" s="18">
+        <f>D3*E3*1.2/(0.2*D3+E3)</f>
+        <v>0.39095311332833449</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -1942,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>42</v>
@@ -1953,27 +1956,27 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
-        <v>0.1</v>
+        <v>0.106</v>
       </c>
       <c r="C4" s="13">
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>0.42049999999999998</v>
+        <v>0.36813200000000001</v>
       </c>
       <c r="E4" s="5">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F4" s="19">
+        <v>0.75706200000000001</v>
+      </c>
+      <c r="F4" s="18">
         <f>D4*E4*2/(D4+E4)</f>
-        <v>0.27922001588562351</v>
-      </c>
-      <c r="G4" s="19">
-        <f>D4*E4*1.3/(0.3*D4+E4)</f>
-        <v>0.34089169028793082</v>
+        <v>0.4953790158568212</v>
+      </c>
+      <c r="G4" s="18">
+        <f>D4*E4*1.2/(0.2*D4+E4)</f>
+        <v>0.40260403036902892</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -1981,11 +1984,11 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
-        <v>512</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1.220703125E-4</v>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>42</v>
@@ -1993,30 +1996,30 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5">
-        <v>0.1</v>
+        <v>0.10589999999999999</v>
       </c>
       <c r="C5" s="13">
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>0.33729999999999999</v>
+        <v>0.36813200000000001</v>
       </c>
       <c r="E5" s="5">
-        <v>0.31640000000000001</v>
-      </c>
-      <c r="F5" s="19">
+        <v>0.75706200000000001</v>
+      </c>
+      <c r="F5" s="18">
         <f>D5*E5*2/(D5+E5)</f>
-        <v>0.32651589414104332</v>
-      </c>
-      <c r="G5" s="19">
-        <f>D5*E5*1.3/(0.3*D5+E5)</f>
-        <v>0.33223553246006848</v>
+        <v>0.4953790158568212</v>
+      </c>
+      <c r="G5" s="18">
+        <f>D5*E5*1.2/(0.2*D5+E5)</f>
+        <v>0.40260403036902892</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -2025,7 +2028,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>42</v>
@@ -2036,24 +2039,24 @@
         <v>20</v>
       </c>
       <c r="B6" s="5">
-        <v>0.1</v>
+        <v>0.10580000000000001</v>
       </c>
       <c r="C6" s="13">
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>0.41752600000000001</v>
+        <v>0.36813200000000001</v>
       </c>
       <c r="E6" s="5">
-        <v>0.45762700000000001</v>
-      </c>
-      <c r="F6" s="19">
+        <v>0.75706200000000001</v>
+      </c>
+      <c r="F6" s="18">
         <f>D6*E6*2/(D6+E6)</f>
-        <v>0.43665775196337098</v>
-      </c>
-      <c r="G6" s="19">
-        <f>D6*E6*1.3/(0.3*D6+E6)</f>
-        <v>0.42614341983630388</v>
+        <v>0.4953790158568212</v>
+      </c>
+      <c r="G6" s="18">
+        <f>D6*E6*1.2/(0.2*D6+E6)</f>
+        <v>0.40260403036902892</v>
       </c>
       <c r="H6" s="9">
         <v>2</v>
@@ -2062,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>42</v>
@@ -2073,27 +2076,27 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5">
-        <v>0.1</v>
+        <v>0.1057</v>
       </c>
       <c r="C7" s="13">
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>0.340862</v>
+        <v>0.34687499999999999</v>
       </c>
       <c r="E7" s="5">
-        <v>0.93785300000000005</v>
-      </c>
-      <c r="F7" s="19">
+        <v>0.62711899999999998</v>
+      </c>
+      <c r="F7" s="18">
         <f>D7*E7*2/(D7+E7)</f>
-        <v>0.49999952966219996</v>
-      </c>
-      <c r="G7" s="19">
-        <f>D7*E7*1.3/(0.3*D7+E7)</f>
-        <v>0.39955518626251263</v>
+        <v>0.44668017077107247</v>
+      </c>
+      <c r="G7" s="18">
+        <f>D7*E7*1.2/(0.2*D7+E7)</f>
+        <v>0.37478899136245253</v>
       </c>
       <c r="H7" s="10">
         <v>2</v>
@@ -2101,11 +2104,11 @@
       <c r="I7" s="10">
         <v>0</v>
       </c>
-      <c r="J7" s="10">
-        <v>3.125E-2</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1.220703125E-4</v>
+      <c r="J7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>42</v>
@@ -2113,27 +2116,27 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>0.1</v>
+        <v>0.1056</v>
       </c>
       <c r="C8" s="13">
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>0.340862</v>
+        <v>0.34687499999999999</v>
       </c>
       <c r="E8" s="5">
-        <v>0.93785300000000005</v>
-      </c>
-      <c r="F8" s="19">
+        <v>0.62711899999999998</v>
+      </c>
+      <c r="F8" s="18">
         <f>D8*E8*2/(D8+E8)</f>
-        <v>0.49999952966219996</v>
-      </c>
-      <c r="G8" s="19">
-        <f>D8*E8*1.3/(0.3*D8+E8)</f>
-        <v>0.39955518626251263</v>
+        <v>0.44668017077107247</v>
+      </c>
+      <c r="G8" s="18">
+        <f>D8*E8*1.2/(0.2*D8+E8)</f>
+        <v>0.37478899136245253</v>
       </c>
       <c r="H8" s="10">
         <v>2</v>
@@ -2141,11 +2144,11 @@
       <c r="I8" s="10">
         <v>0</v>
       </c>
-      <c r="J8" s="10">
-        <v>512</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1.220703125E-4</v>
+      <c r="J8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>42</v>
@@ -2153,27 +2156,27 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5">
-        <v>0.1</v>
+        <v>0.10539999999999999</v>
       </c>
       <c r="C9" s="13">
         <v>0</v>
       </c>
       <c r="D9" s="5">
-        <v>0.37846200000000002</v>
+        <v>0.23333300000000001</v>
       </c>
       <c r="E9" s="5">
-        <v>0.69491499999999995</v>
-      </c>
-      <c r="F9" s="19">
+        <v>3.9548E-2</v>
+      </c>
+      <c r="F9" s="18">
         <f>D9*E9*2/(D9+E9)</f>
-        <v>0.4900401643225073</v>
-      </c>
-      <c r="G9" s="19">
-        <f>D9*E9*1.3/(0.3*D9+E9)</f>
-        <v>0.4229044152305092</v>
+        <v>6.7632803192600441E-2</v>
+      </c>
+      <c r="G9" s="18">
+        <f>D9*E9*1.2/(0.2*D9+E9)</f>
+        <v>0.12844024307715862</v>
       </c>
       <c r="H9" s="10">
         <v>2</v>
@@ -2188,32 +2191,32 @@
         <v>14</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5">
-        <v>0.09</v>
+        <v>0.1052</v>
       </c>
       <c r="C10" s="13">
         <v>0</v>
       </c>
       <c r="D10" s="5">
-        <v>0.24390200000000001</v>
+        <v>0.45454499999999998</v>
       </c>
       <c r="E10" s="5">
-        <v>5.6496999999999999E-2</v>
-      </c>
-      <c r="F10" s="19">
+        <v>0.33898299999999998</v>
+      </c>
+      <c r="F10" s="18">
         <f>D10*E10*2/(D10+E10)</f>
-        <v>9.1742857293133459E-2</v>
-      </c>
-      <c r="G10" s="19">
-        <f>D10*E10*1.3/(0.3*D10+E10)</f>
-        <v>0.13815055327776563</v>
+        <v>0.38834931529826289</v>
+      </c>
+      <c r="G10" s="18">
+        <f>D10*E10*1.2/(0.2*D10+E10)</f>
+        <v>0.43010717408558424</v>
       </c>
       <c r="H10" s="10">
         <v>2</v>
@@ -2228,32 +2231,32 @@
         <v>14</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
-        <v>0.12</v>
+        <v>0.105</v>
       </c>
       <c r="C11" s="13">
         <v>0</v>
       </c>
       <c r="D11" s="5">
-        <v>0.38483099999999998</v>
+        <v>0.45454499999999998</v>
       </c>
       <c r="E11" s="5">
-        <v>0.774011</v>
-      </c>
-      <c r="F11" s="19">
+        <v>0.33898299999999998</v>
+      </c>
+      <c r="F11" s="18">
         <f>D11*E11*2/(D11+E11)</f>
-        <v>0.51407081749021877</v>
-      </c>
-      <c r="G11" s="19">
-        <f>D11*E11*1.3/(0.3*D11+E11)</f>
-        <v>0.43534540584138498</v>
+        <v>0.38834931529826289</v>
+      </c>
+      <c r="G11" s="18">
+        <f>D11*E11*1.2/(0.2*D11+E11)</f>
+        <v>0.43010717408558424</v>
       </c>
       <c r="H11" s="10">
         <v>2</v>
@@ -2262,38 +2265,38 @@
         <v>0</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5">
-        <v>0.15</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="C12" s="13">
         <v>0</v>
       </c>
       <c r="D12" s="5">
-        <v>0.35652200000000001</v>
+        <v>0.355603</v>
       </c>
       <c r="E12" s="5">
-        <v>0.92655399999999999</v>
-      </c>
-      <c r="F12" s="19">
+        <v>0.932203</v>
+      </c>
+      <c r="F12" s="18">
         <f>D12*E12*2/(D12+E12)</f>
-        <v>0.51491398044698833</v>
-      </c>
-      <c r="G12" s="19">
-        <f>D12*E12*1.3/(0.3*D12+E12)</f>
-        <v>0.41551383289576321</v>
+        <v>0.51482006359498245</v>
+      </c>
+      <c r="G12" s="18">
+        <f>D12*E12*1.2/(0.2*D12+E12)</f>
+        <v>0.39647529480099936</v>
       </c>
       <c r="H12" s="10">
         <v>2</v>
@@ -2302,18 +2305,18 @@
         <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5">
         <v>0.1</v>
@@ -2322,18 +2325,18 @@
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>0.36061399999999999</v>
+        <v>0.37846200000000002</v>
       </c>
       <c r="E13" s="5">
-        <v>0.79661000000000004</v>
-      </c>
-      <c r="F13" s="19">
+        <v>0.69491499999999995</v>
+      </c>
+      <c r="F13" s="18">
         <f>D13*E13*2/(D13+E13)</f>
-        <v>0.49647901968849595</v>
-      </c>
-      <c r="G13" s="19">
-        <f>D13*E13*1.3/(0.3*D13+E13)</f>
-        <v>0.41274505749705298</v>
+        <v>0.4900401643225073</v>
+      </c>
+      <c r="G13" s="18">
+        <f>D13*E13*1.2/(0.2*D13+E13)</f>
+        <v>0.40954538572559773</v>
       </c>
       <c r="H13" s="10">
         <v>2</v>
@@ -2342,38 +2345,38 @@
         <v>0</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C14" s="13">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5">
-        <v>0.34661399999999998</v>
+        <v>0.41752600000000001</v>
       </c>
       <c r="E14" s="5">
-        <v>0.98305100000000001</v>
-      </c>
-      <c r="F14" s="19">
+        <v>0.45762700000000001</v>
+      </c>
+      <c r="F14" s="18">
         <f>D14*E14*2/(D14+E14)</f>
-        <v>0.51251892666799537</v>
-      </c>
-      <c r="G14" s="19">
-        <f>D14*E14*1.3/(0.3*D14+E14)</f>
-        <v>0.40749463412794723</v>
+        <v>0.43665775196337098</v>
+      </c>
+      <c r="G14" s="18">
+        <f>D14*E14*1.2/(0.2*D14+E14)</f>
+        <v>0.42371421431287948</v>
       </c>
       <c r="H14" s="10">
         <v>2</v>
@@ -2382,38 +2385,38 @@
         <v>0</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C15" s="13">
         <v>0</v>
       </c>
       <c r="D15" s="5">
-        <v>0.35664299999999999</v>
+        <v>0.340862</v>
       </c>
       <c r="E15" s="5">
-        <v>0.288136</v>
-      </c>
-      <c r="F15" s="19">
+        <v>0.93785300000000005</v>
+      </c>
+      <c r="F15" s="18">
         <f>D15*E15*2/(D15+E15)</f>
-        <v>0.31875010646438551</v>
-      </c>
-      <c r="G15" s="19">
-        <f>D15*E15*1.3/(0.3*D15+E15)</f>
-        <v>0.33809269249199442</v>
+        <v>0.49999952966219996</v>
+      </c>
+      <c r="G15" s="18">
+        <f>D15*E15*1.2/(0.2*D15+E15)</f>
+        <v>0.38131655437646012</v>
       </c>
       <c r="H15" s="10">
         <v>2</v>
@@ -2421,14 +2424,14 @@
       <c r="I15" s="10">
         <v>0</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>28</v>
+      <c r="J15" s="10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1.220703125E-4</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2436,24 +2439,24 @@
         <v>24</v>
       </c>
       <c r="B16" s="5">
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C16" s="13">
         <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>0.3</v>
+        <v>0.340862</v>
       </c>
       <c r="E16" s="5">
-        <v>0.55932199999999999</v>
-      </c>
-      <c r="F16" s="19">
+        <v>0.93785300000000005</v>
+      </c>
+      <c r="F16" s="18">
         <f>D16*E16*2/(D16+E16)</f>
-        <v>0.39053253611568189</v>
-      </c>
-      <c r="G16" s="19">
-        <f>D16*E16*1.3/(0.3*D16+E16)</f>
-        <v>0.33594361503229525</v>
+        <v>0.49999952966219996</v>
+      </c>
+      <c r="G16" s="18">
+        <f>D16*E16*1.2/(0.2*D16+E16)</f>
+        <v>0.38131655437646012</v>
       </c>
       <c r="H16" s="10">
         <v>2</v>
@@ -2461,79 +2464,79 @@
       <c r="I16" s="10">
         <v>0</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>32</v>
+      <c r="J16" s="10">
+        <v>512</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1.220703125E-4</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B17" s="5">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="C17" s="13">
         <v>0</v>
       </c>
       <c r="D17" s="5">
-        <v>0.30128199999999999</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="E17" s="5">
-        <v>0.53107300000000002</v>
-      </c>
-      <c r="F17" s="19">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="F17" s="18">
         <f>D17*E17*2/(D17+E17)</f>
-        <v>0.38445791900330994</v>
-      </c>
-      <c r="G17" s="19">
-        <f>D17*E17*1.3/(0.3*D17+E17)</f>
-        <v>0.33470273154886188</v>
+        <v>0.4097552388935457</v>
+      </c>
+      <c r="G17" s="18">
+        <f>D17*E17*1.2/(0.2*D17+E17)</f>
+        <v>0.37554775928297057</v>
       </c>
       <c r="H17" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="10">
         <v>0</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B18" s="5">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="C18" s="13">
         <v>0</v>
       </c>
       <c r="D18" s="5">
-        <v>0.35042699999999999</v>
+        <v>0.4078</v>
       </c>
       <c r="E18" s="5">
-        <v>0.23163800000000001</v>
-      </c>
-      <c r="F18" s="19">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="F18" s="18">
         <f>D18*E18*2/(D18+E18)</f>
-        <v>0.27891115056222238</v>
-      </c>
-      <c r="G18" s="19">
-        <f>D18*E18*1.3/(0.3*D18+E18)</f>
-        <v>0.31334469904720219</v>
+        <v>0.30001841574949623</v>
+      </c>
+      <c r="G18" s="18">
+        <f>D18*E18*1.2/(0.2*D18+E18)</f>
+        <v>0.36418844634008651</v>
       </c>
       <c r="H18" s="11">
         <v>2</v>
@@ -2542,38 +2545,38 @@
         <v>0</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B19" s="5">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C19" s="13">
         <v>0</v>
       </c>
       <c r="D19" s="5">
-        <v>0.29166700000000001</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="E19" s="5">
-        <v>0.118644</v>
-      </c>
-      <c r="F19" s="19">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F19" s="18">
         <f>D19*E19*2/(D19+E19)</f>
-        <v>0.16867468602109134</v>
-      </c>
-      <c r="G19" s="19">
-        <f>D19*E19*1.3/(0.3*D19+E19)</f>
-        <v>0.21822551027363871</v>
+        <v>0.27922001588562351</v>
+      </c>
+      <c r="G19" s="18">
+        <f>D19*E19*1.2/(0.2*D19+E19)</f>
+        <v>0.35981371545547586</v>
       </c>
       <c r="H19" s="11">
         <v>2</v>
@@ -2581,93 +2584,93 @@
       <c r="I19" s="11">
         <v>0</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>28</v>
+      <c r="J19" s="11">
+        <v>512</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1.220703125E-4</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B20" s="5">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C20" s="13">
         <v>0</v>
       </c>
       <c r="D20" s="5">
-        <v>0.35888500000000001</v>
+        <v>0.33729999999999999</v>
       </c>
       <c r="E20" s="5">
-        <v>0.58192100000000002</v>
-      </c>
-      <c r="F20" s="19">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="F20" s="18">
         <f>D20*E20*2/(D20+E20)</f>
-        <v>0.44396553186310461</v>
-      </c>
-      <c r="G20" s="19">
-        <f>D20*E20*1.3/(0.3*D20+E20)</f>
-        <v>0.39370772703714479</v>
-      </c>
-      <c r="H20" s="11">
-        <v>2</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11" t="s">
+        <v>0.32651589414104332</v>
+      </c>
+      <c r="G20" s="18">
+        <f>D20*E20*1.2/(0.2*D20+E20)</f>
+        <v>0.33362700984734017</v>
+      </c>
+      <c r="H20" s="26">
+        <v>1</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>41</v>
+      <c r="K20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5">
-        <v>0.10100000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="C21" s="13">
         <v>0</v>
       </c>
       <c r="D21" s="5">
-        <v>0.355603</v>
+        <v>0.24390200000000001</v>
       </c>
       <c r="E21" s="5">
-        <v>0.932203</v>
-      </c>
-      <c r="F21" s="19">
+        <v>5.6496999999999999E-2</v>
+      </c>
+      <c r="F21" s="18">
         <f>D21*E21*2/(D21+E21)</f>
-        <v>0.51482006359498245</v>
-      </c>
-      <c r="G21" s="19">
-        <f>D21*E21*1.3/(0.3*D21+E21)</f>
-        <v>0.41481289529243831</v>
-      </c>
-      <c r="H21" s="11">
+        <v>9.1742857293133459E-2</v>
+      </c>
+      <c r="G21" s="18">
+        <f>D21*E21*1.2/(0.2*D21+E21)</f>
+        <v>0.15706768549375269</v>
+      </c>
+      <c r="H21" s="26">
         <v>2</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="11" t="s">
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
+      <c r="J21" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3325,7 +3328,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="11" t="e">
-        <f>C2*D2*2/(C2+D2)</f>
+        <f t="shared" ref="E2:E12" si="0">C2*D2*2/(C2+D2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3343,7 +3346,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="11" t="e">
-        <f>C3*D3*2/(C3+D3)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3361,7 +3364,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="11" t="e">
-        <f>C4*D4*2/(C4+D4)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3379,7 +3382,7 @@
         <v>0.77966101694900003</v>
       </c>
       <c r="E5" s="11">
-        <f>C5*D5*2/(C5+D5)</f>
+        <f t="shared" si="0"/>
         <v>0.46464646464687015</v>
       </c>
     </row>
@@ -3390,14 +3393,14 @@
       <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>0.33250000000000002</v>
       </c>
       <c r="D6" s="5">
         <v>0.75141242937899999</v>
       </c>
       <c r="E6" s="11">
-        <f>C6*D6*2/(C6+D6)</f>
+        <f t="shared" si="0"/>
         <v>0.4610051993068473</v>
       </c>
     </row>
@@ -3415,7 +3418,7 @@
         <v>0.64971751412400003</v>
       </c>
       <c r="E7" s="11">
-        <f>C7*D7*2/(C7+D7)</f>
+        <f t="shared" si="0"/>
         <v>0.45098039215649749</v>
       </c>
     </row>
@@ -3426,14 +3429,14 @@
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.37751004016099998</v>
       </c>
       <c r="D8" s="5">
         <v>0.53107344632800002</v>
       </c>
       <c r="E8" s="11">
-        <f>C8*D8*2/(C8+D8)</f>
+        <f t="shared" si="0"/>
         <v>0.44131455399096381</v>
       </c>
     </row>
@@ -3451,7 +3454,7 @@
         <v>0.429378531073</v>
       </c>
       <c r="E9" s="11">
-        <f>C9*D9*2/(C9+D9)</f>
+        <f t="shared" si="0"/>
         <v>0.39276485788109039</v>
       </c>
     </row>
@@ -3469,7 +3472,7 @@
         <v>0.19209039548000001</v>
       </c>
       <c r="E10" s="11">
-        <f>C10*D10*2/(C10+D10)</f>
+        <f t="shared" si="0"/>
         <v>0.25373134328329877</v>
       </c>
     </row>
@@ -3487,7 +3490,7 @@
         <v>0.118644067797</v>
       </c>
       <c r="E11" s="11">
-        <f>C11*D11*2/(C11+D11)</f>
+        <f t="shared" si="0"/>
         <v>0.17355371900869265</v>
       </c>
     </row>
@@ -3498,14 +3501,14 @@
       <c r="B12" s="7">
         <v>7</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>0.41025641025600001</v>
       </c>
       <c r="D12" s="5">
         <v>9.0395480225999997E-2</v>
       </c>
       <c r="E12" s="11">
-        <f>C12*D12*2/(C12+D12)</f>
+        <f t="shared" si="0"/>
         <v>0.14814814814813659</v>
       </c>
     </row>

--- a/data/result/QA_subtitle.xlsx
+++ b/data/result/QA_subtitle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="简单的问句探测方法" sheetId="1" r:id="rId1"/>
@@ -29,42 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>yezhejack</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t>yezhejack:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="41">
   <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,29 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PrefixSpan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动结果保留150个词</t>
-    <rPh sb="0" eb="1">
-      <t>zi dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie guo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bao liu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自动结果保留200个词</t>
     <rPh sb="0" eb="1">
       <t>zi dong</t>
@@ -330,14 +273,6 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>PrefixSpan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -348,7 +283,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,27 +324,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,7 +351,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -473,12 +387,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,9 +440,6 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,15 +453,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,8 +460,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -569,6 +498,12 @@
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -586,15 +521,129 @@
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="41">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -696,6 +745,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -736,30 +789,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -771,86 +800,86 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F30" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F30" totalsRowShown="0" headerRowDxfId="0" dataDxfId="7">
   <autoFilter ref="A1:F30"/>
   <sortState ref="A2:F30">
     <sortCondition descending="1" ref="F1:F30"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="minsup" dataDxfId="38"/>
-    <tableColumn id="2" name="minlen" dataDxfId="37"/>
-    <tableColumn id="3" name="P" dataDxfId="36"/>
-    <tableColumn id="4" name="R" dataDxfId="35"/>
-    <tableColumn id="5" name="F" dataDxfId="34">
+    <tableColumn id="1" name="minsup" dataDxfId="6"/>
+    <tableColumn id="2" name="minlen" dataDxfId="5"/>
+    <tableColumn id="3" name="P" dataDxfId="4"/>
+    <tableColumn id="4" name="R" dataDxfId="3"/>
+    <tableColumn id="5" name="F" dataDxfId="2">
       <calculatedColumnFormula>(C2*D2*2)/(C2+D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="E" dataDxfId="0">
+    <tableColumn id="6" name="E" dataDxfId="1">
       <calculatedColumnFormula>C2*D2*1.2/(0.2*C2+D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:L21" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:L21"/>
-  <sortState ref="A2:L21">
-    <sortCondition descending="1" ref="B1:B21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:L39" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:L39"/>
+  <sortState ref="A2:L39">
+    <sortCondition descending="1" ref="G1:G39"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="2" name="pattern_mine" dataDxfId="31"/>
-    <tableColumn id="3" name="minsup" dataDxfId="30"/>
-    <tableColumn id="11" name="minlen" dataDxfId="29"/>
-    <tableColumn id="4" name="precision" dataDxfId="28"/>
-    <tableColumn id="5" name="recall" dataDxfId="27"/>
-    <tableColumn id="10" name="F" dataDxfId="26">
+    <tableColumn id="2" name="pattern_mine" dataDxfId="38"/>
+    <tableColumn id="3" name="minsup" dataDxfId="37"/>
+    <tableColumn id="11" name="minlen" dataDxfId="36"/>
+    <tableColumn id="4" name="precision" dataDxfId="35"/>
+    <tableColumn id="5" name="recall" dataDxfId="34"/>
+    <tableColumn id="10" name="F" dataDxfId="33">
       <calculatedColumnFormula>D2*E2*2/(D2+E2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="E" dataDxfId="1">
+    <tableColumn id="12" name="E" dataDxfId="32">
       <calculatedColumnFormula>D2*E2*1.2/(0.2*D2+E2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="t" dataDxfId="25"/>
-    <tableColumn id="7" name="s" dataDxfId="24"/>
-    <tableColumn id="8" name="c" dataDxfId="23"/>
-    <tableColumn id="9" name="g" dataDxfId="22"/>
-    <tableColumn id="1" name="keywords" dataDxfId="21"/>
+    <tableColumn id="6" name="t" dataDxfId="31"/>
+    <tableColumn id="7" name="s" dataDxfId="30"/>
+    <tableColumn id="8" name="c" dataDxfId="29"/>
+    <tableColumn id="9" name="g" dataDxfId="28"/>
+    <tableColumn id="1" name="keywords" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_5" displayName="表3_5" ref="A1:J18" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_5" displayName="表3_5" ref="A1:J18" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:J18"/>
   <tableColumns count="10">
-    <tableColumn id="2" name="pattern_mine" dataDxfId="18"/>
-    <tableColumn id="3" name="minsup" dataDxfId="17"/>
-    <tableColumn id="11" name="minlen" dataDxfId="16"/>
-    <tableColumn id="4" name="precision" dataDxfId="15"/>
-    <tableColumn id="5" name="recall" dataDxfId="14"/>
-    <tableColumn id="6" name="t" dataDxfId="13"/>
-    <tableColumn id="7" name="s" dataDxfId="12"/>
-    <tableColumn id="8" name="c" dataDxfId="11"/>
-    <tableColumn id="9" name="g" dataDxfId="10"/>
-    <tableColumn id="1" name="keywords" dataDxfId="9"/>
+    <tableColumn id="2" name="pattern_mine" dataDxfId="24"/>
+    <tableColumn id="3" name="minsup" dataDxfId="23"/>
+    <tableColumn id="11" name="minlen" dataDxfId="22"/>
+    <tableColumn id="4" name="precision" dataDxfId="21"/>
+    <tableColumn id="5" name="recall" dataDxfId="20"/>
+    <tableColumn id="6" name="t" dataDxfId="19"/>
+    <tableColumn id="7" name="s" dataDxfId="18"/>
+    <tableColumn id="8" name="c" dataDxfId="17"/>
+    <tableColumn id="9" name="g" dataDxfId="16"/>
+    <tableColumn id="1" name="keywords" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:E12"/>
   <sortState ref="A2:E12">
     <sortCondition descending="1" ref="E1:E12"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="minsup" dataDxfId="6"/>
-    <tableColumn id="2" name="minlen" dataDxfId="5"/>
-    <tableColumn id="3" name="P" dataDxfId="4"/>
-    <tableColumn id="4" name="R" dataDxfId="3"/>
-    <tableColumn id="5" name="F" dataDxfId="2">
+    <tableColumn id="1" name="minsup" dataDxfId="12"/>
+    <tableColumn id="2" name="minlen" dataDxfId="11"/>
+    <tableColumn id="3" name="P" dataDxfId="10"/>
+    <tableColumn id="4" name="R" dataDxfId="9"/>
+    <tableColumn id="5" name="F" dataDxfId="8">
       <calculatedColumnFormula>C2*D2*2/(C2+D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1123,682 +1152,684 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="25" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="27">
         <v>90</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="27">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="28">
         <v>0.468468468468</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="28">
         <v>0.29378531073399999</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="25">
         <f>(C2*D2*2)/(C2+D2)</f>
         <v>0.361111111110622</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="26">
         <f>C2*D2*1.2/(0.2*C2+D2)</f>
         <v>0.42622950819623567</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="27">
         <v>40</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="27">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="28">
         <v>0.42774566473999998</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="28">
         <v>0.41807909604499999</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="25">
         <f>(C3*D3*2)/(C3+D3)</f>
         <v>0.42285714285709813</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="26">
         <f>C3*D3*1.2/(0.2*C3+D3)</f>
         <v>0.42610364683307478</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="27">
         <v>80</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="27">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="28">
         <v>0.46153846153799999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="28">
         <v>0.30508474576299999</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="25">
         <f>(C4*D4*2)/(C4+D4)</f>
         <v>0.3673469387755729</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="26">
         <f>C4*D4*1.2/(0.2*C4+D4)</f>
         <v>0.42519685039346761</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="27">
         <v>30</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="27">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="28">
         <v>0.41538461538499999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="28">
         <v>0.45762711864400002</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="25">
         <f>(C5*D5*2)/(C5+D5)</f>
         <v>0.43548387096792257</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="26">
         <f>C5*D5*1.2/(0.2*C5+D5)</f>
         <v>0.42187500000032091</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="27">
         <v>100</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="27">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="28">
         <v>0.46728971962600002</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="28">
         <v>0.28248587570599998</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="25">
         <f>(C6*D6*2)/(C6+D6)</f>
         <v>0.35211267605612351</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="26">
         <f>C6*D6*1.2/(0.2*C6+D6)</f>
         <v>0.42134831460654798</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="27">
         <v>70</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="27">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="28">
         <v>0.4453125</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="28">
         <v>0.32203389830500001</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="25">
         <f>(C7*D7*2)/(C7+D7)</f>
         <v>0.37377049180322169</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="26">
         <f>C7*D7*1.2/(0.2*C7+D7)</f>
         <v>0.41860465116276691</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="27">
         <v>60</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="27">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="28">
         <v>0.428571428571</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="28">
         <v>0.33898305084699998</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="25">
         <f>(C8*D8*2)/(C8+D8)</f>
         <v>0.37854889589860108</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="26">
         <f>C8*D8*1.2/(0.2*C8+D8)</f>
         <v>0.4104903078672914</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="27">
         <v>50</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="27">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="28">
         <v>0.41935483871000001</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="28">
         <v>0.36723163841799999</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="25">
         <f>(C9*D9*2)/(C9+D9)</f>
         <v>0.39156626506033659</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="26">
         <f>C9*D9*1.2/(0.2*C9+D9)</f>
         <v>0.40966386554645862</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="27">
         <v>90</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="27">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="28">
         <v>0.35971223021600002</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="28">
         <v>0.84745762711899997</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="25">
         <f>(C10*D10*2)/(C10+D10)</f>
         <v>0.50505050505073845</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="26">
         <f>C10*D10*1.2/(0.2*C10+D10)</f>
         <v>0.39787798408506975</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="27">
         <v>100</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="27">
         <v>3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="28">
         <v>0.35971223021600002</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="28">
         <v>0.84745762711899997</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="25">
         <f>(C11*D11*2)/(C11+D11)</f>
         <v>0.50505050505073845</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="26">
         <f>C11*D11*1.2/(0.2*C11+D11)</f>
         <v>0.39787798408506975</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="27">
         <v>100</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="27">
         <v>4</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="28">
         <v>0.37074829931999997</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="28">
         <v>0.61581920903999998</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="25">
         <f>(C12*D12*2)/(C12+D12)</f>
         <v>0.46284501061605093</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="26">
         <f>C12*D12*1.2/(0.2*C12+D12)</f>
         <v>0.39708561020065569</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="27">
         <v>70</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="27">
         <v>3</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="28">
         <v>0.35885167464099998</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="28">
         <v>0.84745762711899997</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="25">
         <f>(C13*D13*2)/(C13+D13)</f>
         <v>0.50420168067218551</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="26">
         <f>C13*D13*1.2/(0.2*C13+D13)</f>
         <v>0.39700044111146299</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="27">
         <v>80</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="27">
         <v>3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="28">
         <v>0.35885167464099998</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="28">
         <v>0.84745762711899997</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="25">
         <f>(C14*D14*2)/(C14+D14)</f>
         <v>0.50420168067218551</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="26">
         <f>C14*D14*1.2/(0.2*C14+D14)</f>
         <v>0.39700044111146299</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
         <v>30</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="27">
         <v>3</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="28">
         <v>0.35680751173699998</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="28">
         <v>0.85875706214699998</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="25">
         <f>(C15*D15*2)/(C15+D15)</f>
         <v>0.5041459369816873</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="26">
         <f>C15*D15*1.2/(0.2*C15+D15)</f>
         <v>0.39531859557858612</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="27">
         <v>50</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="27">
         <v>3</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="28">
         <v>0.35629453681700002</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="28">
         <v>0.84745762711899997</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="25">
         <f>(C16*D16*2)/(C16+D16)</f>
         <v>0.50167224080263662</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="26">
         <f>C16*D16*1.2/(0.2*C16+D16)</f>
         <v>0.3943908851883397</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="27">
         <v>60</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="27">
         <v>3</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="28">
         <v>0.35629453681700002</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="28">
         <v>0.84745762711899997</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="25">
         <f>(C17*D17*2)/(C17+D17)</f>
         <v>0.50167224080263662</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="26">
         <f>C17*D17*1.2/(0.2*C17+D17)</f>
         <v>0.3943908851883397</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="27">
         <v>30</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="27">
         <v>6</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="28">
         <v>0.59090909090900001</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="28">
         <v>0.146892655367</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="25">
         <f>(C18*D18*2)/(C18+D18)</f>
         <v>0.23529411764675442</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="26">
         <f>C18*D18*1.2/(0.2*C18+D18)</f>
         <v>0.39294710327424942</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="27">
         <v>40</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="27">
         <v>3</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="28">
         <v>0.35460992907799999</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="28">
         <v>0.84745762711899997</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="25">
         <f>(C19*D19*2)/(C19+D19)</f>
         <v>0.50000000000004785</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="26">
         <f>C19*D19*1.2/(0.2*C19+D19)</f>
         <v>0.39267015706806108</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="27">
         <v>90</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="27">
         <v>4</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="28">
         <v>0.36156351791500002</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="28">
         <v>0.627118644068</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="25">
         <f>(C20*D20*2)/(C20+D20)</f>
         <v>0.45867768595021863</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="26">
         <f>C20*D20*1.2/(0.2*C20+D20)</f>
         <v>0.38901869158849955</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="27">
         <v>80</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="27">
         <v>4</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="28">
         <v>0.35782747603800003</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="28">
         <v>0.63276836158200001</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="25">
         <f>(C21*D21*2)/(C21+D21)</f>
         <v>0.45714285714260139</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="26">
         <f>C21*D21*1.2/(0.2*C21+D21)</f>
         <v>0.38576349024077911</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="27">
         <v>30</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="27">
         <v>4</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="28">
         <v>0.35327635327599999</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="28">
         <v>0.70056497175099997</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="25">
         <f>(C22*D22*2)/(C22+D22)</f>
         <v>0.46969696969656471</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="26">
         <f>C22*D22*1.2/(0.2*C22+D22)</f>
         <v>0.38509316770149271</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="27">
         <v>70</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="27">
         <v>4</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="28">
         <v>0.35493827160500002</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="28">
         <v>0.64971751412400003</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="25">
         <f>(C23*D23*2)/(C23+D23)</f>
         <v>0.45908183632732358</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="26">
         <f>C23*D23*1.2/(0.2*C23+D23)</f>
         <v>0.3839732888147343</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="27">
         <v>60</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="28">
         <v>0.35060975609799999</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="28">
         <v>0.64971751412400003</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="25">
         <f>(C24*D24*2)/(C24+D24)</f>
         <v>0.45544554455475367</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="26">
         <f>C24*D24*1.2/(0.2*C24+D24)</f>
         <v>0.3797468354434505</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="27">
         <v>40</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="27">
         <v>4</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="28">
         <v>0.34782608695700001</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="28">
         <v>0.67796610169500005</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="25">
         <f>(C25*D25*2)/(C25+D25)</f>
         <v>0.4597701149429661</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="26">
         <f>C25*D25*1.2/(0.2*C25+D25)</f>
         <v>0.37854889589953011</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="27">
         <v>50</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="27">
         <v>4</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="28">
         <v>0.34626865671599999</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="28">
         <v>0.65536723163800004</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="25">
         <f>(C26*D26*2)/(C26+D26)</f>
         <v>0.45312499999954231</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="26">
         <f>C26*D26*1.2/(0.2*C26+D26)</f>
         <v>0.37580993520475048</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="27">
         <v>40</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="27">
         <v>6</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="28">
         <v>0.66666666666700003</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="28">
         <v>7.9096045197699999E-2</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="25">
         <f>(C27*D27*2)/(C27+D27)</f>
         <v>0.14141414141408482</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="26">
         <f>C27*D27*1.2/(0.2*C27+D27)</f>
         <v>0.2978723404254926</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="27">
         <v>50</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="27">
         <v>6</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="28">
         <v>0.66666666666700003</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="28">
         <v>7.9096045197699999E-2</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="25">
         <f>(C28*D28*2)/(C28+D28)</f>
         <v>0.14141414141408482</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="26">
         <f>C28*D28*1.2/(0.2*C28+D28)</f>
         <v>0.2978723404254926</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="27">
         <v>60</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="27">
         <v>6</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="28">
         <v>0.66666666666700003</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="28">
         <v>5.64971751412E-2</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="25">
         <f>(C29*D29*2)/(C29+D29)</f>
         <v>0.10416666666659775</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="26">
         <f>C29*D29*1.2/(0.2*C29+D29)</f>
         <v>0.23809523809514641</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="27">
         <v>70</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="27">
         <v>6</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="28">
         <v>0.75</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="28">
         <v>3.3898305084700001E-2</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="25">
         <f>(C30*D30*2)/(C30+D30)</f>
         <v>6.4864864864781088E-2</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="26">
         <f>C30*D30*1.2/(0.2*C30+D30)</f>
         <v>0.16589861751133805</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1814,18 +1845,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="6" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
@@ -1837,850 +1868,1569 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.35888500000000001</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.58192100000000002</v>
-      </c>
-      <c r="F2" s="18">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.45985399999999998</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.35593200000000003</v>
+      </c>
+      <c r="F2" s="16">
         <f>D2*E2*2/(D2+E2)</f>
-        <v>0.44396553186310461</v>
-      </c>
-      <c r="G2" s="18">
+        <v>0.40127375053751846</v>
+      </c>
+      <c r="G2" s="16">
         <f>D2*E2*1.2/(0.2*D2+E2)</f>
-        <v>0.38337468020706805</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>41</v>
+        <v>0.43851501869066234</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7.22E-2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.41702099999999998</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.55367200000000005</v>
+      </c>
+      <c r="F3" s="16">
+        <f>D3*E3*2/(D3+E3)</f>
+        <v>0.47572785857526528</v>
+      </c>
+      <c r="G3" s="16">
+        <f>D3*E3*1.2/(0.2*D3+E3)</f>
+        <v>0.43491095937095114</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.36011900000000002</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.683616</v>
-      </c>
-      <c r="F3" s="18">
-        <f>D3*E3*2/(D3+E3)</f>
-        <v>0.47173489497621518</v>
-      </c>
-      <c r="G3" s="18">
-        <f>D3*E3*1.2/(0.2*D3+E3)</f>
-        <v>0.39095311332833449</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4">
+        <v>0.1052</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.45454499999999998</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.33898299999999998</v>
+      </c>
+      <c r="F4" s="16">
+        <f>D4*E4*2/(D4+E4)</f>
+        <v>0.38834931529826289</v>
+      </c>
+      <c r="G4" s="16">
+        <f>D4*E4*1.2/(0.2*D4+E4)</f>
+        <v>0.43010717408558424</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.106</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.36813200000000001</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.75706200000000001</v>
-      </c>
-      <c r="F4" s="18">
-        <f>D4*E4*2/(D4+E4)</f>
-        <v>0.4953790158568212</v>
-      </c>
-      <c r="G4" s="18">
-        <f>D4*E4*1.2/(0.2*D4+E4)</f>
-        <v>0.40260403036902892</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4">
+        <v>0.105</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.45454499999999998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.33898299999999998</v>
+      </c>
+      <c r="F5" s="16">
+        <f>D5*E5*2/(D5+E5)</f>
+        <v>0.38834931529826289</v>
+      </c>
+      <c r="G5" s="16">
+        <f>D5*E5*1.2/(0.2*D5+E5)</f>
+        <v>0.43010717408558424</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.10589999999999999</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.36813200000000001</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.75706200000000001</v>
-      </c>
-      <c r="F5" s="18">
-        <f>D5*E5*2/(D5+E5)</f>
-        <v>0.4953790158568212</v>
-      </c>
-      <c r="G5" s="18">
-        <f>D5*E5*1.2/(0.2*D5+E5)</f>
-        <v>0.40260403036902892</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4">
+        <v>0.1048</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.45454499999999998</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.33898299999999998</v>
+      </c>
+      <c r="F6" s="16">
+        <f>D6*E6*2/(D6+E6)</f>
+        <v>0.38834931529826289</v>
+      </c>
+      <c r="G6" s="16">
+        <f>D6*E6*1.2/(0.2*D6+E6)</f>
+        <v>0.43010717408558424</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.10580000000000001</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.36813200000000001</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.75706200000000001</v>
-      </c>
-      <c r="F6" s="18">
-        <f>D6*E6*2/(D6+E6)</f>
-        <v>0.4953790158568212</v>
-      </c>
-      <c r="G6" s="18">
-        <f>D6*E6*1.2/(0.2*D6+E6)</f>
-        <v>0.40260403036902892</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4">
+        <v>0.1046</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.45454499999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.33898299999999998</v>
+      </c>
+      <c r="F7" s="16">
+        <f>D7*E7*2/(D7+E7)</f>
+        <v>0.38834931529826289</v>
+      </c>
+      <c r="G7" s="16">
+        <f>D7*E7*1.2/(0.2*D7+E7)</f>
+        <v>0.43010717408558424</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.41228100000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.53107300000000002</v>
+      </c>
+      <c r="F8" s="16">
+        <f>D8*E8*2/(D8+E8)</f>
+        <v>0.46419754940987162</v>
+      </c>
+      <c r="G8" s="16">
+        <f>D8*E8*1.2/(0.2*D8+E8)</f>
+        <v>0.42824623345653318</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.41228100000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.53107300000000002</v>
+      </c>
+      <c r="F9" s="16">
+        <f>D9*E9*2/(D9+E9)</f>
+        <v>0.46419754940987162</v>
+      </c>
+      <c r="G9" s="16">
+        <f>D9*E9*1.2/(0.2*D9+E9)</f>
+        <v>0.42824623345653318</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.1057</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.34687499999999999</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.62711899999999998</v>
-      </c>
-      <c r="F7" s="18">
-        <f>D7*E7*2/(D7+E7)</f>
-        <v>0.44668017077107247</v>
-      </c>
-      <c r="G7" s="18">
-        <f>D7*E7*1.2/(0.2*D7+E7)</f>
-        <v>0.37478899136245253</v>
-      </c>
-      <c r="H7" s="10">
-        <v>2</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="B10" s="4">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.39215699999999998</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.79096</v>
+      </c>
+      <c r="F10" s="16">
+        <f>D10*E10*2/(D10+E10)</f>
+        <v>0.52434459266496891</v>
+      </c>
+      <c r="G10" s="16">
+        <f>D10*E10*1.2/(0.2*D10+E10)</f>
+        <v>0.4281346708329527</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.413636</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.51412400000000003</v>
+      </c>
+      <c r="F11" s="16">
+        <f>D11*E11*2/(D11+E11)</f>
+        <v>0.45843794702078122</v>
+      </c>
+      <c r="G11" s="16">
+        <f>D11*E11*1.2/(0.2*D11+E11)</f>
+        <v>0.42756424689570866</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.413636</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.51412400000000003</v>
+      </c>
+      <c r="F12" s="16">
+        <f>D12*E12*2/(D12+E12)</f>
+        <v>0.45843794702078122</v>
+      </c>
+      <c r="G12" s="16">
+        <f>D12*E12*1.2/(0.2*D12+E12)</f>
+        <v>0.42756424689570866</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.413636</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.51412400000000003</v>
+      </c>
+      <c r="F13" s="16">
+        <f>D13*E13*2/(D13+E13)</f>
+        <v>0.45843794702078122</v>
+      </c>
+      <c r="G13" s="16">
+        <f>D13*E13*1.2/(0.2*D13+E13)</f>
+        <v>0.42756424689570866</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.1056</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.34687499999999999</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.62711899999999998</v>
-      </c>
-      <c r="F8" s="18">
-        <f>D8*E8*2/(D8+E8)</f>
-        <v>0.44668017077107247</v>
-      </c>
-      <c r="G8" s="18">
-        <f>D8*E8*1.2/(0.2*D8+E8)</f>
-        <v>0.37478899136245253</v>
-      </c>
-      <c r="H8" s="10">
-        <v>2</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.23333300000000001</v>
-      </c>
-      <c r="E9" s="5">
-        <v>3.9548E-2</v>
-      </c>
-      <c r="F9" s="18">
-        <f>D9*E9*2/(D9+E9)</f>
-        <v>6.7632803192600441E-2</v>
-      </c>
-      <c r="G9" s="18">
-        <f>D9*E9*1.2/(0.2*D9+E9)</f>
-        <v>0.12844024307715862</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.1052</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.45454499999999998</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.33898299999999998</v>
-      </c>
-      <c r="F10" s="18">
-        <f>D10*E10*2/(D10+E10)</f>
-        <v>0.38834931529826289</v>
-      </c>
-      <c r="G10" s="18">
-        <f>D10*E10*1.2/(0.2*D10+E10)</f>
-        <v>0.43010717408558424</v>
-      </c>
-      <c r="H10" s="10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.105</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.45454499999999998</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.33898299999999998</v>
-      </c>
-      <c r="F11" s="18">
-        <f>D11*E11*2/(D11+E11)</f>
-        <v>0.38834931529826289</v>
-      </c>
-      <c r="G11" s="18">
-        <f>D11*E11*1.2/(0.2*D11+E11)</f>
-        <v>0.43010717408558424</v>
-      </c>
-      <c r="H11" s="10">
-        <v>2</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.355603</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.932203</v>
-      </c>
-      <c r="F12" s="18">
-        <f>D12*E12*2/(D12+E12)</f>
-        <v>0.51482006359498245</v>
-      </c>
-      <c r="G12" s="18">
-        <f>D12*E12*1.2/(0.2*D12+E12)</f>
-        <v>0.39647529480099936</v>
-      </c>
-      <c r="H12" s="10">
-        <v>2</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="B14" s="4">
         <v>0.1</v>
       </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.37846200000000002</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.69491499999999995</v>
-      </c>
-      <c r="F13" s="18">
-        <f>D13*E13*2/(D13+E13)</f>
-        <v>0.4900401643225073</v>
-      </c>
-      <c r="G13" s="18">
-        <f>D13*E13*1.2/(0.2*D13+E13)</f>
-        <v>0.40954538572559773</v>
-      </c>
-      <c r="H13" s="10">
-        <v>2</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
         <v>0.41752600000000001</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.45762700000000001</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <f>D14*E14*2/(D14+E14)</f>
         <v>0.43665775196337098</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <f>D14*E14*1.2/(0.2*D14+E14)</f>
         <v>0.42371421431287948</v>
       </c>
-      <c r="H14" s="10">
-        <v>2</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="H14" s="9">
+        <v>2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>42</v>
+      <c r="L14" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.488095</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.23163800000000001</v>
+      </c>
+      <c r="F15" s="16">
+        <f>D15*E15*2/(D15+E15)</f>
+        <v>0.31417581133559253</v>
+      </c>
+      <c r="G15" s="16">
+        <f>D15*E15*1.2/(0.2*D15+E15)</f>
+        <v>0.41205993959733578</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.106</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.36813200000000001</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.75706200000000001</v>
+      </c>
+      <c r="F16" s="16">
+        <f>D16*E16*2/(D16+E16)</f>
+        <v>0.4953790158568212</v>
+      </c>
+      <c r="G16" s="16">
+        <f>D16*E16*1.2/(0.2*D16+E16)</f>
+        <v>0.40260403036902892</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.10589999999999999</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.36813200000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.75706200000000001</v>
+      </c>
+      <c r="F17" s="16">
+        <f>D17*E17*2/(D17+E17)</f>
+        <v>0.4953790158568212</v>
+      </c>
+      <c r="G17" s="16">
+        <f>D17*E17*1.2/(0.2*D17+E17)</f>
+        <v>0.40260403036902892</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.36813200000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.75706200000000001</v>
+      </c>
+      <c r="F18" s="16">
+        <f>D18*E18*2/(D18+E18)</f>
+        <v>0.4953790158568212</v>
+      </c>
+      <c r="G18" s="16">
+        <f>D18*E18*1.2/(0.2*D18+E18)</f>
+        <v>0.40260403036902892</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.507463</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.19209000000000001</v>
+      </c>
+      <c r="F19" s="16">
+        <f>D19*E19*2/(D19+E19)</f>
+        <v>0.27868815563652793</v>
+      </c>
+      <c r="G19" s="16">
+        <f>D19*E19*1.2/(0.2*D19+E19)</f>
+        <v>0.39843737743313123</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.36011900000000002</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.683616</v>
+      </c>
+      <c r="F20" s="16">
+        <f>D20*E20*2/(D20+E20)</f>
+        <v>0.47173489497621518</v>
+      </c>
+      <c r="G20" s="16">
+        <f>D20*E20*1.2/(0.2*D20+E20)</f>
+        <v>0.39095311332833449</v>
+      </c>
+      <c r="H20" s="21">
+        <v>2</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.46835399999999999</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.20904</v>
+      </c>
+      <c r="F21" s="16">
+        <f>D21*E21*2/(D21+E21)</f>
+        <v>0.2890628501581059</v>
+      </c>
+      <c r="G21" s="16">
+        <f>D21*E21*1.2/(0.2*D21+E21)</f>
+        <v>0.38811190149806346</v>
+      </c>
+      <c r="H21" s="21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.47368399999999999</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.20338999999999999</v>
+      </c>
+      <c r="F22" s="16">
+        <f>D22*E22*2/(D22+E22)</f>
+        <v>0.28458510815656779</v>
+      </c>
+      <c r="G22" s="16">
+        <f>D22*E22*1.2/(0.2*D22+E22)</f>
+        <v>0.38779172658077021</v>
+      </c>
+      <c r="H22" s="21">
+        <v>2</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6.08E-2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.43564399999999998</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.248588</v>
+      </c>
+      <c r="F23" s="16">
+        <f>D23*E23*2/(D23+E23)</f>
+        <v>0.3165472257129161</v>
+      </c>
+      <c r="G23" s="16">
+        <f>D23*E23*1.2/(0.2*D23+E23)</f>
+        <v>0.38709723435467031</v>
+      </c>
+      <c r="H23" s="21">
+        <v>2</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B24" s="4">
         <v>0.1</v>
       </c>
-      <c r="C15" s="13">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
         <v>0.340862</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E24" s="4">
         <v>0.93785300000000005</v>
       </c>
-      <c r="F15" s="18">
-        <f>D15*E15*2/(D15+E15)</f>
+      <c r="F24" s="16">
+        <f>D24*E24*2/(D24+E24)</f>
         <v>0.49999952966219996</v>
       </c>
-      <c r="G15" s="18">
-        <f>D15*E15*1.2/(0.2*D15+E15)</f>
+      <c r="G24" s="16">
+        <f>D24*E24*1.2/(0.2*D24+E24)</f>
         <v>0.38131655437646012</v>
       </c>
-      <c r="H15" s="10">
-        <v>2</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="H24" s="21">
+        <v>2</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0</v>
+      </c>
+      <c r="J24" s="21">
         <v>3.125E-2</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K24" s="21">
         <v>1.220703125E-4</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="L24" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B25" s="4">
         <v>0.1</v>
       </c>
-      <c r="C16" s="13">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
         <v>0.340862</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E25" s="4">
         <v>0.93785300000000005</v>
       </c>
-      <c r="F16" s="18">
-        <f>D16*E16*2/(D16+E16)</f>
+      <c r="F25" s="16">
+        <f>D25*E25*2/(D25+E25)</f>
         <v>0.49999952966219996</v>
       </c>
-      <c r="G16" s="18">
-        <f>D16*E16*1.2/(0.2*D16+E16)</f>
+      <c r="G25" s="16">
+        <f>D25*E25*1.2/(0.2*D25+E25)</f>
         <v>0.38131655437646012</v>
       </c>
-      <c r="H16" s="10">
-        <v>2</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="H25" s="21">
+        <v>2</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21">
         <v>512</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K25" s="21">
         <v>1.220703125E-4</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="L25" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B26" s="4">
         <v>0.1</v>
       </c>
-      <c r="C17" s="13">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
         <v>0.36049999999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E26" s="4">
         <v>0.47460000000000002</v>
       </c>
-      <c r="F17" s="18">
-        <f>D17*E17*2/(D17+E17)</f>
+      <c r="F26" s="16">
+        <f>D26*E26*2/(D26+E26)</f>
         <v>0.4097552388935457</v>
       </c>
-      <c r="G17" s="18">
-        <f>D17*E17*1.2/(0.2*D17+E17)</f>
+      <c r="G26" s="16">
+        <f>D26*E26*1.2/(0.2*D26+E26)</f>
         <v>0.37554775928297057</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H26" s="21">
         <v>3</v>
       </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="10" t="s">
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="L26" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.1057</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.34687499999999999</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.62711899999999998</v>
+      </c>
+      <c r="F27" s="16">
+        <f>D27*E27*2/(D27+E27)</f>
+        <v>0.44668017077107247</v>
+      </c>
+      <c r="G27" s="16">
+        <f>D27*E27*1.2/(0.2*D27+E27)</f>
+        <v>0.37478899136245253</v>
+      </c>
+      <c r="H27" s="21">
+        <v>2</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.1056</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.34687499999999999</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.62711899999999998</v>
+      </c>
+      <c r="F28" s="16">
+        <f>D28*E28*2/(D28+E28)</f>
+        <v>0.44668017077107247</v>
+      </c>
+      <c r="G28" s="16">
+        <f>D28*E28*1.2/(0.2*D28+E28)</f>
+        <v>0.37478899136245253</v>
+      </c>
+      <c r="H28" s="21">
+        <v>2</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B29" s="4">
         <v>0.1</v>
       </c>
-      <c r="C18" s="13">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
         <v>0.4078</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E29" s="4">
         <v>0.23730000000000001</v>
       </c>
-      <c r="F18" s="18">
-        <f>D18*E18*2/(D18+E18)</f>
+      <c r="F29" s="16">
+        <f>D29*E29*2/(D29+E29)</f>
         <v>0.30001841574949623</v>
       </c>
-      <c r="G18" s="18">
-        <f>D18*E18*1.2/(0.2*D18+E18)</f>
+      <c r="G29" s="16">
+        <f>D29*E29*1.2/(0.2*D29+E29)</f>
         <v>0.36418844634008651</v>
       </c>
-      <c r="H18" s="11">
-        <v>2</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="11" t="s">
+      <c r="H29" s="22">
+        <v>2</v>
+      </c>
+      <c r="I29" s="22">
+        <v>0</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="L29" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B30" s="4">
         <v>0.1</v>
       </c>
-      <c r="C19" s="13">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
         <v>0.42049999999999998</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E30" s="4">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F19" s="18">
-        <f>D19*E19*2/(D19+E19)</f>
+      <c r="F30" s="16">
+        <f>D30*E30*2/(D30+E30)</f>
         <v>0.27922001588562351</v>
       </c>
-      <c r="G19" s="18">
-        <f>D19*E19*1.2/(0.2*D19+E19)</f>
+      <c r="G30" s="16">
+        <f>D30*E30*1.2/(0.2*D30+E30)</f>
         <v>0.35981371545547586</v>
       </c>
-      <c r="H19" s="11">
-        <v>2</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="H30" s="23">
+        <v>2</v>
+      </c>
+      <c r="I30" s="23">
+        <v>0</v>
+      </c>
+      <c r="J30" s="23">
         <v>512</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K30" s="23">
         <v>1.220703125E-4</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="L30" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B31" s="4">
         <v>0.1</v>
       </c>
-      <c r="C20" s="13">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
         <v>0.33729999999999999</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E31" s="4">
         <v>0.31640000000000001</v>
       </c>
-      <c r="F20" s="18">
-        <f>D20*E20*2/(D20+E20)</f>
+      <c r="F31" s="16">
+        <f>D31*E31*2/(D31+E31)</f>
         <v>0.32651589414104332</v>
       </c>
-      <c r="G20" s="18">
-        <f>D20*E20*1.2/(0.2*D20+E20)</f>
+      <c r="G31" s="16">
+        <f>D31*E31*1.2/(0.2*D31+E31)</f>
         <v>0.33362700984734017</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H31" s="23">
         <v>1</v>
       </c>
-      <c r="I20" s="26">
-        <v>0</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="26" t="s">
+      <c r="I31" s="23">
+        <v>0</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.24390200000000001</v>
-      </c>
-      <c r="E21" s="5">
-        <v>5.6496999999999999E-2</v>
-      </c>
-      <c r="F21" s="18">
-        <f>D21*E21*2/(D21+E21)</f>
-        <v>9.1742857293133459E-2</v>
-      </c>
-      <c r="G21" s="18">
-        <f>D21*E21*1.2/(0.2*D21+E21)</f>
-        <v>0.15706768549375269</v>
-      </c>
-      <c r="H21" s="26">
-        <v>2</v>
-      </c>
-      <c r="I21" s="26">
-        <v>0</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="26" t="s">
-        <v>41</v>
+      <c r="L31" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.1036</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.32926800000000001</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.305085</v>
+      </c>
+      <c r="F32" s="16">
+        <f>D32*E32*2/(D32+E32)</f>
+        <v>0.31671554412133313</v>
+      </c>
+      <c r="G32" s="16">
+        <f>D32*E32*1.2/(0.2*D32+E32)</f>
+        <v>0.32497473526885579</v>
+      </c>
+      <c r="H32" s="23">
+        <v>2</v>
+      </c>
+      <c r="I32" s="23">
+        <v>0</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.1036</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.32926800000000001</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.305085</v>
+      </c>
+      <c r="F33" s="16">
+        <f>D33*E33*2/(D33+E33)</f>
+        <v>0.31671554412133313</v>
+      </c>
+      <c r="G33" s="16">
+        <f>D33*E33*1.2/(0.2*D33+E33)</f>
+        <v>0.32497473526885579</v>
+      </c>
+      <c r="H33" s="23">
+        <v>2</v>
+      </c>
+      <c r="I33" s="23">
+        <v>0</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.32926800000000001</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.305085</v>
+      </c>
+      <c r="F34" s="16">
+        <f>D34*E34*2/(D34+E34)</f>
+        <v>0.31671554412133313</v>
+      </c>
+      <c r="G34" s="16">
+        <f>D34*E34*1.2/(0.2*D34+E34)</f>
+        <v>0.32497473526885579</v>
+      </c>
+      <c r="H34" s="23">
+        <v>2</v>
+      </c>
+      <c r="I34" s="23">
+        <v>0</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.1042</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.29411799999999999</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.169492</v>
+      </c>
+      <c r="F35" s="16">
+        <f>D35*E35*2/(D35+E35)</f>
+        <v>0.21505423979638061</v>
+      </c>
+      <c r="G35" s="16">
+        <f>D35*E35*1.2/(0.2*D35+E35)</f>
+        <v>0.26200915604189989</v>
+      </c>
+      <c r="H35" s="23">
+        <v>2</v>
+      </c>
+      <c r="I35" s="23">
+        <v>0</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.104</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.29411799999999999</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.169492</v>
+      </c>
+      <c r="F36" s="16">
+        <f>D36*E36*2/(D36+E36)</f>
+        <v>0.21505423979638061</v>
+      </c>
+      <c r="G36" s="16">
+        <f>D36*E36*1.2/(0.2*D36+E36)</f>
+        <v>0.26200915604189989</v>
+      </c>
+      <c r="H36" s="23">
+        <v>2</v>
+      </c>
+      <c r="I36" s="23">
+        <v>0</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.1038</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.29411799999999999</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.169492</v>
+      </c>
+      <c r="F37" s="16">
+        <f>D37*E37*2/(D37+E37)</f>
+        <v>0.21505423979638061</v>
+      </c>
+      <c r="G37" s="16">
+        <f>D37*E37*1.2/(0.2*D37+E37)</f>
+        <v>0.26200915604189989</v>
+      </c>
+      <c r="H37" s="23">
+        <v>2</v>
+      </c>
+      <c r="I37" s="23">
+        <v>0</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.29411799999999999</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.169492</v>
+      </c>
+      <c r="F38" s="16">
+        <f>D38*E38*2/(D38+E38)</f>
+        <v>0.21505423979638061</v>
+      </c>
+      <c r="G38" s="16">
+        <f>D38*E38*1.2/(0.2*D38+E38)</f>
+        <v>0.26200915604189989</v>
+      </c>
+      <c r="H38" s="23">
+        <v>2</v>
+      </c>
+      <c r="I38" s="23">
+        <v>0</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.23333300000000001</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3.9548E-2</v>
+      </c>
+      <c r="F39" s="16">
+        <f>D39*E39*2/(D39+E39)</f>
+        <v>6.7632803192600441E-2</v>
+      </c>
+      <c r="G39" s="16">
+        <f>D39*E39*1.2/(0.2*D39+E39)</f>
+        <v>0.12844024307715862</v>
+      </c>
+      <c r="H39" s="23">
+        <v>2</v>
+      </c>
+      <c r="I39" s="23">
+        <v>0</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2690,7 +3440,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2699,578 +3449,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.1</v>
       </c>
-      <c r="C2" s="13">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.1</v>
       </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <v>0.33729999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.31640000000000001</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.1</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>0.4078</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.23730000000000001</v>
       </c>
-      <c r="F4" s="11">
-        <v>2</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="F4" s="10">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.1</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>0.36049999999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.47460000000000002</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>3</v>
       </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.1</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>0.42049999999999998</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F6" s="11">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
         <v>512</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>1.220703125E-4</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.1</v>
       </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.41752600000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.45762700000000001</v>
       </c>
-      <c r="F7" s="11">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.1</v>
       </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>0.340862</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.93785300000000005</v>
       </c>
-      <c r="F8" s="11">
-        <v>2</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
         <v>3.125E-2</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>1.220703125E-4</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.1</v>
       </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>0.340862</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.93785300000000005</v>
       </c>
-      <c r="F9" s="11">
-        <v>2</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
         <v>512</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>1.220703125E-4</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.15</v>
       </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <v>0.35652200000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.92655399999999999</v>
       </c>
-      <c r="F10" s="11">
-        <v>2</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>0.13</v>
       </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.35042699999999999</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.23163800000000001</v>
       </c>
-      <c r="F11" s="11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.12</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <v>0.38483099999999998</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.774011</v>
       </c>
-      <c r="F12" s="11">
-        <v>2</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.11</v>
       </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <v>0.29166700000000001</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.118644</v>
       </c>
-      <c r="F13" s="11">
-        <v>2</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.1</v>
       </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
         <v>0.282609</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>7.3445999999999997E-2</v>
       </c>
-      <c r="F14" s="11">
-        <v>2</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>0.09</v>
       </c>
-      <c r="C15" s="13">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
         <v>0.35664299999999999</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>0.288136</v>
       </c>
-      <c r="F15" s="11">
-        <v>2</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="F15" s="10">
+        <v>2</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C16" s="13">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>0.3</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>0.55932199999999999</v>
       </c>
-      <c r="F16" s="11">
-        <v>2</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="F16" s="10">
+        <v>2</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0.06</v>
       </c>
-      <c r="C17" s="13">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
         <v>0.30128199999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>0.53107300000000002</v>
       </c>
-      <c r="F17" s="11">
-        <v>2</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="F17" s="10">
+        <v>2</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.05</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>0.04</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0.34661399999999998</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>0.98305100000000001</v>
       </c>
-      <c r="F18" s="11">
-        <v>2</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="F18" s="10">
+        <v>2</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3294,220 +4044,220 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>5000</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11" t="e">
+      <c r="E2" s="10" t="e">
         <f t="shared" ref="E2:E12" si="0">C2*D2*2/(C2+D2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>6000</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="11" t="e">
+      <c r="E3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>10000</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="11" t="e">
+      <c r="E4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>5000</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.33093525179900002</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.77966101694900003</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>0.46464646464687015</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>6000</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>0.33250000000000002</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.75141242937899999</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>0.4610051993068473</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>10000</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.345345345345</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.64971751412400003</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>0.45098039215649749</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>5000</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>0.37751004016099998</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.53107344632800002</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>0.44131455399096381</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>6000</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.36190476190499998</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.429378531073</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>0.39276485788109039</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>10000</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.37362637362599999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.19209039548000001</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>0.25373134328329877</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>5000</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.32307692307699998</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.118644067797</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>0.17355371900869265</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>6000</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>0.41025641025600001</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>9.0395480225999997E-2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>0.14814814814813659</v>
       </c>
